--- a/project1/www/html/lib/20191122/33cancer_20191122/luad.xlsx
+++ b/project1/www/html/lib/20191122/33cancer_20191122/luad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15945" windowHeight="9240"/>
+    <workbookView windowWidth="19200" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="861">
   <si>
     <t>TTF-1</t>
   </si>
@@ -2603,30 +2603,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2643,23 +2632,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2681,11 +2662,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2699,14 +2680,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2721,6 +2719,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2728,30 +2733,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2765,11 +2755,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2788,7 +2777,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2800,7 +2867,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2812,13 +2903,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2830,139 +2945,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2981,15 +2970,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3018,6 +2998,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3029,6 +3024,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3048,198 +3054,166 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3307,7 +3281,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="303030"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -3560,15 +3534,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N520"/>
+  <dimension ref="A1:N519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="9.375"/>
+    <col min="3" max="14" width="9.375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3590,7 +3564,7 @@
       <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
       <c r="K1">
@@ -3625,7 +3599,7 @@
       <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
       <c r="K2">
@@ -3645,10 +3619,10 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>22895549</v>
       </c>
       <c r="D3" t="s">
@@ -3666,10 +3640,10 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
       <c r="K3">
@@ -3685,10 +3659,10 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4"/>
+      <c r="C4"/>
       <c r="D4" t="s">
         <v>7</v>
       </c>
@@ -3701,13 +3675,11 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5"/>
+      <c r="C5"/>
       <c r="D5" t="s">
         <v>16</v>
       </c>
@@ -3723,13 +3695,11 @@
       <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6"/>
+      <c r="C6"/>
       <c r="D6" t="s">
         <v>19</v>
       </c>
@@ -3745,13 +3715,11 @@
       <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7"/>
+      <c r="C7"/>
       <c r="D7" t="s">
         <v>22</v>
       </c>
@@ -3767,13 +3735,11 @@
       <c r="H7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8"/>
+      <c r="C8"/>
       <c r="D8" t="s">
         <v>25</v>
       </c>
@@ -3786,13 +3752,11 @@
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9"/>
+      <c r="C9"/>
       <c r="D9" t="s">
         <v>27</v>
       </c>
@@ -3808,17 +3772,15 @@
       <c r="H9" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>4</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>23322301</v>
       </c>
       <c r="D10" t="s">
@@ -3827,16 +3789,16 @@
       <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" t="s">
         <v>35</v>
       </c>
       <c r="K10">
@@ -3852,22 +3814,19 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11"/>
+      <c r="C11"/>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
@@ -3879,7 +3838,7 @@
       <c r="C12">
         <v>27494877</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" t="s">
         <v>38</v>
       </c>
       <c r="K12">
@@ -3914,7 +3873,7 @@
       <c r="I13" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" t="s">
         <v>41</v>
       </c>
       <c r="K13">
@@ -3940,7 +3899,7 @@
       <c r="C14">
         <v>26780934</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" t="s">
         <v>42</v>
       </c>
       <c r="K14">
@@ -3960,7 +3919,7 @@
       <c r="A15">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15">
@@ -3975,7 +3934,7 @@
       <c r="I15" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15">
@@ -4010,7 +3969,7 @@
       <c r="I16" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" t="s">
         <v>50</v>
       </c>
       <c r="K16">
@@ -4036,7 +3995,7 @@
       <c r="C17">
         <v>28322854</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>51</v>
       </c>
       <c r="E17" t="s">
@@ -4045,7 +4004,7 @@
       <c r="I17" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" t="s">
         <v>53</v>
       </c>
       <c r="K17">
@@ -4089,7 +4048,7 @@
       <c r="I18" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" t="s">
         <v>60</v>
       </c>
       <c r="K18">
@@ -4109,10 +4068,10 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>25060702</v>
       </c>
       <c r="D19" t="s">
@@ -4124,13 +4083,13 @@
       <c r="F19" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" t="s">
         <v>66</v>
       </c>
       <c r="K19">
@@ -4146,10 +4105,10 @@
         <v>662</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20"/>
+      <c r="C20"/>
       <c r="D20" t="s">
         <v>0</v>
       </c>
@@ -4159,9 +4118,6 @@
       <c r="F20" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21">
@@ -4188,7 +4144,7 @@
       <c r="I21" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" t="s">
         <v>73</v>
       </c>
       <c r="K21">
@@ -4217,10 +4173,10 @@
       <c r="D22" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" t="s">
         <v>75</v>
       </c>
       <c r="G22" t="s">
@@ -4229,7 +4185,7 @@
       <c r="I22" t="s">
         <v>76</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" t="s">
         <v>77</v>
       </c>
       <c r="K22">
@@ -4270,7 +4226,7 @@
       <c r="I23" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" t="s">
         <v>81</v>
       </c>
       <c r="K23">
@@ -4290,10 +4246,10 @@
       <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>25880398</v>
       </c>
       <c r="D24" t="s">
@@ -4305,13 +4261,13 @@
       <c r="F24" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" t="s">
         <v>86</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" t="s">
         <v>87</v>
       </c>
       <c r="K24">
@@ -4327,10 +4283,10 @@
         <v>561</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25"/>
+      <c r="C25"/>
       <c r="D25" t="s">
         <v>83</v>
       </c>
@@ -4340,14 +4296,11 @@
       <c r="F25" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10">
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26"/>
+      <c r="C26"/>
       <c r="D26" t="s">
         <v>84</v>
       </c>
@@ -4357,14 +4310,11 @@
       <c r="F26" t="s">
         <v>89</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27"/>
+      <c r="C27"/>
       <c r="D27" t="s">
         <v>84</v>
       </c>
@@ -4374,9 +4324,6 @@
       <c r="F27" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
@@ -4403,7 +4350,7 @@
       <c r="I28" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" t="s">
         <v>95</v>
       </c>
       <c r="K28">
@@ -4429,7 +4376,7 @@
       <c r="C29">
         <v>29151932</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>96</v>
       </c>
       <c r="E29" t="s">
@@ -4444,10 +4391,10 @@
       <c r="H29" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" t="s">
         <v>100</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" t="s">
         <v>101</v>
       </c>
       <c r="K29">
@@ -4467,10 +4414,10 @@
       <c r="A30" s="1">
         <v>22</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>23539445</v>
       </c>
       <c r="D30" t="s">
@@ -4485,13 +4432,13 @@
       <c r="G30" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" t="s">
         <v>104</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>105</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" t="s">
         <v>106</v>
       </c>
       <c r="K30">
@@ -4507,10 +4454,10 @@
         <v>529</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:6">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31"/>
+      <c r="C31"/>
       <c r="D31" t="s">
         <v>102</v>
       </c>
@@ -4520,14 +4467,11 @@
       <c r="F31" t="s">
         <v>107</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32"/>
+      <c r="C32"/>
       <c r="D32" t="s">
         <v>102</v>
       </c>
@@ -4537,9 +4481,6 @@
       <c r="F32" t="s">
         <v>109</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
@@ -4560,7 +4501,7 @@
       <c r="I33" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" t="s">
         <v>112</v>
       </c>
       <c r="K33">
@@ -4595,7 +4536,7 @@
       <c r="I34" t="s">
         <v>115</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" t="s">
         <v>116</v>
       </c>
       <c r="K34">
@@ -4615,13 +4556,13 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>3</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>27613418</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>117</v>
       </c>
       <c r="E35" t="s">
@@ -4633,13 +4574,13 @@
       <c r="G35" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" t="s">
         <v>120</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>121</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" t="s">
         <v>122</v>
       </c>
       <c r="K35">
@@ -4655,11 +4596,11 @@
         <v>501</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="3" t="s">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36" t="s">
         <v>117</v>
       </c>
       <c r="E36" t="s">
@@ -4671,18 +4612,15 @@
       <c r="G36" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>26</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>21617857</v>
       </c>
       <c r="D37" t="s">
@@ -4697,10 +4635,10 @@
       <c r="G37" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>127</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" t="s">
         <v>128</v>
       </c>
       <c r="K37">
@@ -4716,10 +4654,10 @@
         <v>494</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38"/>
+      <c r="C38"/>
       <c r="D38" t="s">
         <v>124</v>
       </c>
@@ -4732,8 +4670,6 @@
       <c r="G38" t="s">
         <v>130</v>
       </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
@@ -4760,7 +4696,7 @@
       <c r="I39" t="s">
         <v>135</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" t="s">
         <v>136</v>
       </c>
       <c r="K39">
@@ -4804,7 +4740,7 @@
       <c r="I40" t="s">
         <v>142</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" t="s">
         <v>143</v>
       </c>
       <c r="K40">
@@ -4845,7 +4781,7 @@
       <c r="I41" t="s">
         <v>148</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" t="s">
         <v>149</v>
       </c>
       <c r="K41">
@@ -4883,7 +4819,7 @@
       <c r="G42" t="s">
         <v>152</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" t="s">
         <v>153</v>
       </c>
       <c r="K42">
@@ -4927,7 +4863,7 @@
       <c r="I43" t="s">
         <v>158</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" t="s">
         <v>159</v>
       </c>
       <c r="K43">
@@ -4971,7 +4907,7 @@
       <c r="I44" t="s">
         <v>164</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" t="s">
         <v>165</v>
       </c>
       <c r="K44">
@@ -5012,7 +4948,7 @@
       <c r="I45" t="s">
         <v>170</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" t="s">
         <v>171</v>
       </c>
       <c r="K45">
@@ -5053,7 +4989,7 @@
       <c r="I46" t="s">
         <v>175</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" t="s">
         <v>176</v>
       </c>
       <c r="K46">
@@ -5088,7 +5024,7 @@
       <c r="I47" t="s">
         <v>178</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" t="s">
         <v>179</v>
       </c>
       <c r="K47">
@@ -5123,7 +5059,7 @@
       <c r="I48" t="s">
         <v>180</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="J48" t="s">
         <v>181</v>
       </c>
       <c r="K48">
@@ -5143,10 +5079,10 @@
       <c r="A49" s="1">
         <v>40</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>3</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>30251328</v>
       </c>
       <c r="D49" t="s">
@@ -5161,13 +5097,13 @@
       <c r="G49" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" t="s">
         <v>184</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" t="s">
         <v>185</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J49" t="s">
         <v>186</v>
       </c>
       <c r="K49">
@@ -5183,10 +5119,10 @@
         <v>412</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:6">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="B50"/>
+      <c r="C50"/>
       <c r="D50" t="s">
         <v>182</v>
       </c>
@@ -5196,18 +5132,15 @@
       <c r="F50" t="s">
         <v>188</v>
       </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>41</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>3</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>29980786</v>
       </c>
       <c r="D51" t="s">
@@ -5222,13 +5155,13 @@
       <c r="G51" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" t="s">
         <v>191</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" t="s">
         <v>192</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="J51" t="s">
         <v>193</v>
       </c>
       <c r="K51">
@@ -5244,10 +5177,10 @@
         <v>412</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:6">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="B52"/>
+      <c r="C52"/>
       <c r="D52" t="s">
         <v>194</v>
       </c>
@@ -5257,14 +5190,11 @@
       <c r="F52" t="s">
         <v>190</v>
       </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="7"/>
-    </row>
-    <row r="53" spans="1:10">
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="B53"/>
+      <c r="C53"/>
       <c r="D53" t="s">
         <v>194</v>
       </c>
@@ -5277,14 +5207,11 @@
       <c r="G53" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="7"/>
-    </row>
-    <row r="54" spans="1:10">
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="B54"/>
+      <c r="C54"/>
       <c r="D54" t="s">
         <v>194</v>
       </c>
@@ -5297,9 +5224,6 @@
       <c r="G54" t="s">
         <v>10</v>
       </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
@@ -5326,7 +5250,7 @@
       <c r="I55" t="s">
         <v>199</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J55" t="s">
         <v>200</v>
       </c>
       <c r="K55">
@@ -5361,7 +5285,7 @@
       <c r="I56" t="s">
         <v>203</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="J56" t="s">
         <v>204</v>
       </c>
       <c r="K56">
@@ -5399,7 +5323,7 @@
       <c r="I57" t="s">
         <v>208</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="J57" t="s">
         <v>209</v>
       </c>
       <c r="K57">
@@ -5443,7 +5367,7 @@
       <c r="I58" t="s">
         <v>213</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J58" t="s">
         <v>214</v>
       </c>
       <c r="K58">
@@ -5459,7 +5383,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="59" spans="4:10">
+    <row r="59" spans="4:7">
       <c r="D59" t="s">
         <v>215</v>
       </c>
@@ -5472,22 +5396,21 @@
       <c r="G59" t="s">
         <v>217</v>
       </c>
-      <c r="J59" s="6"/>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
         <v>48</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>3</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>25157139</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>218</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" t="s">
         <v>8</v>
       </c>
       <c r="F60" t="s">
@@ -5496,13 +5419,13 @@
       <c r="G60" t="s">
         <v>219</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" t="s">
         <v>220</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" t="s">
         <v>221</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J60" t="s">
         <v>222</v>
       </c>
       <c r="K60">
@@ -5518,36 +5441,33 @@
         <v>398</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:7">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="5"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
       <c r="F61" t="s">
         <v>223</v>
       </c>
       <c r="G61" t="s">
         <v>224</v>
       </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
         <v>49</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>3</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>24145959</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>225</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>8</v>
       </c>
       <c r="F62" t="s">
@@ -5556,13 +5476,13 @@
       <c r="G62" t="s">
         <v>10</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" t="s">
         <v>227</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" t="s">
         <v>228</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="J62" t="s">
         <v>229</v>
       </c>
       <c r="K62">
@@ -5578,21 +5498,18 @@
         <v>397</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:7">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
       <c r="F63" t="s">
         <v>230</v>
       </c>
       <c r="G63" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
@@ -5622,7 +5539,7 @@
       <c r="I64" t="s">
         <v>233</v>
       </c>
-      <c r="J64" s="6" t="s">
+      <c r="J64" t="s">
         <v>234</v>
       </c>
       <c r="K64">
@@ -5663,10 +5580,10 @@
       <c r="H65" t="s">
         <v>237</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="I65" t="s">
         <v>238</v>
       </c>
-      <c r="J65" s="6" t="s">
+      <c r="J65" t="s">
         <v>239</v>
       </c>
       <c r="K65">
@@ -5710,7 +5627,7 @@
       <c r="I66" t="s">
         <v>242</v>
       </c>
-      <c r="J66" s="6" t="s">
+      <c r="J66" t="s">
         <v>243</v>
       </c>
       <c r="K66">
@@ -5745,7 +5662,7 @@
       <c r="I67" t="s">
         <v>244</v>
       </c>
-      <c r="J67" s="6" t="s">
+      <c r="J67" t="s">
         <v>245</v>
       </c>
       <c r="K67">
@@ -5786,7 +5703,7 @@
       <c r="I68" t="s">
         <v>248</v>
       </c>
-      <c r="J68" s="6" t="s">
+      <c r="J68" t="s">
         <v>249</v>
       </c>
       <c r="K68">
@@ -5824,7 +5741,7 @@
       <c r="I69" t="s">
         <v>252</v>
       </c>
-      <c r="J69" s="6" t="s">
+      <c r="J69" t="s">
         <v>253</v>
       </c>
       <c r="K69">
@@ -5868,7 +5785,7 @@
       <c r="I70" t="s">
         <v>256</v>
       </c>
-      <c r="J70" s="6" t="s">
+      <c r="J70" t="s">
         <v>257</v>
       </c>
       <c r="K70">
@@ -5906,7 +5823,7 @@
       <c r="I71" t="s">
         <v>260</v>
       </c>
-      <c r="J71" s="6" t="s">
+      <c r="J71" t="s">
         <v>261</v>
       </c>
       <c r="K71">
@@ -5950,7 +5867,7 @@
       <c r="I72" t="s">
         <v>264</v>
       </c>
-      <c r="J72" s="6" t="s">
+      <c r="J72" t="s">
         <v>265</v>
       </c>
       <c r="K72">
@@ -5994,7 +5911,7 @@
       <c r="I73" t="s">
         <v>268</v>
       </c>
-      <c r="J73" s="6" t="s">
+      <c r="J73" t="s">
         <v>269</v>
       </c>
       <c r="K73">
@@ -6032,7 +5949,7 @@
       <c r="I74" t="s">
         <v>272</v>
       </c>
-      <c r="J74" s="6" t="s">
+      <c r="J74" t="s">
         <v>273</v>
       </c>
       <c r="K74">
@@ -6076,7 +5993,7 @@
       <c r="I75" t="s">
         <v>276</v>
       </c>
-      <c r="J75" s="6" t="s">
+      <c r="J75" t="s">
         <v>277</v>
       </c>
       <c r="K75">
@@ -6114,7 +6031,7 @@
       <c r="I76" t="s">
         <v>281</v>
       </c>
-      <c r="J76" s="6" t="s">
+      <c r="J76" t="s">
         <v>282</v>
       </c>
       <c r="K76">
@@ -6155,10 +6072,10 @@
       <c r="H77" t="s">
         <v>241</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I77" t="s">
         <v>284</v>
       </c>
-      <c r="J77" s="6" t="s">
+      <c r="J77" t="s">
         <v>285</v>
       </c>
       <c r="K77">
@@ -6202,7 +6119,7 @@
       <c r="I78" t="s">
         <v>288</v>
       </c>
-      <c r="J78" s="6" t="s">
+      <c r="J78" t="s">
         <v>289</v>
       </c>
       <c r="K78">
@@ -6243,7 +6160,7 @@
       <c r="I79" t="s">
         <v>292</v>
       </c>
-      <c r="J79" s="6" t="s">
+      <c r="J79" t="s">
         <v>293</v>
       </c>
       <c r="K79">
@@ -6278,7 +6195,7 @@
       <c r="I80" t="s">
         <v>295</v>
       </c>
-      <c r="J80" s="6" t="s">
+      <c r="J80" t="s">
         <v>296</v>
       </c>
       <c r="K80">
@@ -6298,10 +6215,10 @@
       <c r="A81" s="1">
         <v>74</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81">
         <v>4</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81">
         <v>30039492</v>
       </c>
       <c r="D81" t="s">
@@ -6310,10 +6227,10 @@
       <c r="H81" t="s">
         <v>298</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" t="s">
         <v>299</v>
       </c>
-      <c r="J81" s="7" t="s">
+      <c r="J81" t="s">
         <v>300</v>
       </c>
       <c r="K81">
@@ -6329,18 +6246,16 @@
         <v>311</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:8">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="B82"/>
+      <c r="C82"/>
       <c r="D82" t="s">
         <v>301</v>
       </c>
       <c r="H82" t="s">
         <v>302</v>
       </c>
-      <c r="I82" s="1"/>
-      <c r="J82" s="7"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83">
@@ -6367,7 +6282,7 @@
       <c r="I83" t="s">
         <v>305</v>
       </c>
-      <c r="J83" s="6" t="s">
+      <c r="J83" t="s">
         <v>306</v>
       </c>
       <c r="K83">
@@ -6408,7 +6323,7 @@
       <c r="I84" t="s">
         <v>309</v>
       </c>
-      <c r="J84" s="6" t="s">
+      <c r="J84" t="s">
         <v>310</v>
       </c>
       <c r="K84">
@@ -6452,7 +6367,7 @@
       <c r="I85" t="s">
         <v>312</v>
       </c>
-      <c r="J85" s="6" t="s">
+      <c r="J85" t="s">
         <v>313</v>
       </c>
       <c r="K85">
@@ -6496,7 +6411,7 @@
       <c r="I86" t="s">
         <v>318</v>
       </c>
-      <c r="J86" s="6" t="s">
+      <c r="J86" t="s">
         <v>319</v>
       </c>
       <c r="K86">
@@ -6531,7 +6446,7 @@
       <c r="I87" t="s">
         <v>321</v>
       </c>
-      <c r="J87" s="6" t="s">
+      <c r="J87" t="s">
         <v>322</v>
       </c>
       <c r="K87">
@@ -6551,10 +6466,10 @@
       <c r="A88" s="1">
         <v>85</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88">
         <v>3</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88">
         <v>28610956</v>
       </c>
       <c r="D88" t="s">
@@ -6569,13 +6484,13 @@
       <c r="G88" t="s">
         <v>15</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H88" t="s">
         <v>325</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="I88" t="s">
         <v>326</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="J88" t="s">
         <v>327</v>
       </c>
       <c r="K88">
@@ -6591,10 +6506,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:7">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="B89"/>
+      <c r="C89"/>
       <c r="D89" t="s">
         <v>328</v>
       </c>
@@ -6607,9 +6522,6 @@
       <c r="G89" t="s">
         <v>10</v>
       </c>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="7"/>
     </row>
     <row r="90" spans="1:14">
       <c r="A90">
@@ -6636,7 +6548,7 @@
       <c r="H90" t="s">
         <v>331</v>
       </c>
-      <c r="J90" s="6" t="s">
+      <c r="J90" t="s">
         <v>332</v>
       </c>
       <c r="K90">
@@ -6677,7 +6589,7 @@
       <c r="I91" t="s">
         <v>335</v>
       </c>
-      <c r="J91" s="6" t="s">
+      <c r="J91" t="s">
         <v>336</v>
       </c>
       <c r="K91">
@@ -6712,7 +6624,7 @@
       <c r="I92" t="s">
         <v>338</v>
       </c>
-      <c r="J92" s="6" t="s">
+      <c r="J92" t="s">
         <v>339</v>
       </c>
       <c r="K92">
@@ -6753,7 +6665,7 @@
       <c r="I93" t="s">
         <v>343</v>
       </c>
-      <c r="J93" s="6" t="s">
+      <c r="J93" t="s">
         <v>344</v>
       </c>
       <c r="K93">
@@ -6788,7 +6700,7 @@
       <c r="I94" t="s">
         <v>346</v>
       </c>
-      <c r="J94" s="6" t="s">
+      <c r="J94" t="s">
         <v>347</v>
       </c>
       <c r="K94">
@@ -6823,7 +6735,7 @@
       <c r="I95" t="s">
         <v>349</v>
       </c>
-      <c r="J95" s="6" t="s">
+      <c r="J95" t="s">
         <v>350</v>
       </c>
       <c r="K95">
@@ -6864,7 +6776,7 @@
       <c r="I96" t="s">
         <v>353</v>
       </c>
-      <c r="J96" s="6" t="s">
+      <c r="J96" t="s">
         <v>354</v>
       </c>
       <c r="K96">
@@ -6908,7 +6820,7 @@
       <c r="I97" t="s">
         <v>356</v>
       </c>
-      <c r="J97" s="6" t="s">
+      <c r="J97" t="s">
         <v>357</v>
       </c>
       <c r="K97">
@@ -6952,7 +6864,7 @@
       <c r="I98" t="s">
         <v>361</v>
       </c>
-      <c r="J98" s="6" t="s">
+      <c r="J98" t="s">
         <v>362</v>
       </c>
       <c r="K98">
@@ -6972,10 +6884,10 @@
       <c r="A99" s="1">
         <v>100</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99">
         <v>3</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99">
         <v>24213573</v>
       </c>
       <c r="D99" t="s">
@@ -6987,13 +6899,13 @@
       <c r="F99" t="s">
         <v>363</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H99" t="s">
         <v>364</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="I99" t="s">
         <v>365</v>
       </c>
-      <c r="J99" s="7" t="s">
+      <c r="J99" t="s">
         <v>366</v>
       </c>
       <c r="K99">
@@ -7009,10 +6921,10 @@
         <v>256</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:6">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="B100"/>
+      <c r="C100"/>
       <c r="D100" t="s">
         <v>91</v>
       </c>
@@ -7022,9 +6934,6 @@
       <c r="F100" t="s">
         <v>367</v>
       </c>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="7"/>
     </row>
     <row r="101" spans="1:14">
       <c r="A101">
@@ -7036,7 +6945,7 @@
       <c r="C101">
         <v>28192407</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" t="s">
         <v>0</v>
       </c>
       <c r="E101" t="s">
@@ -7054,7 +6963,7 @@
       <c r="I101" t="s">
         <v>371</v>
       </c>
-      <c r="J101" s="6" t="s">
+      <c r="J101" t="s">
         <v>372</v>
       </c>
       <c r="K101">
@@ -7080,7 +6989,7 @@
       <c r="C102">
         <v>29990857</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" t="s">
         <v>307</v>
       </c>
       <c r="E102" t="s">
@@ -7098,7 +7007,7 @@
       <c r="I102" t="s">
         <v>376</v>
       </c>
-      <c r="J102" s="6" t="s">
+      <c r="J102" t="s">
         <v>377</v>
       </c>
       <c r="K102">
@@ -7124,7 +7033,7 @@
       <c r="C103">
         <v>22139074</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" t="s">
         <v>91</v>
       </c>
       <c r="E103" t="s">
@@ -7142,7 +7051,7 @@
       <c r="I103" t="s">
         <v>380</v>
       </c>
-      <c r="J103" s="6" t="s">
+      <c r="J103" t="s">
         <v>381</v>
       </c>
       <c r="K103">
@@ -7162,13 +7071,13 @@
       <c r="A104" s="1">
         <v>105</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>382</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104">
         <v>28099944</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" t="s">
         <v>383</v>
       </c>
       <c r="E104" t="s">
@@ -7180,13 +7089,13 @@
       <c r="G104" t="s">
         <v>385</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H104" t="s">
         <v>275</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="I104" t="s">
         <v>386</v>
       </c>
-      <c r="J104" s="6" t="s">
+      <c r="J104" t="s">
         <v>387</v>
       </c>
       <c r="K104">
@@ -7202,11 +7111,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:7">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="6" t="s">
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105" t="s">
         <v>383</v>
       </c>
       <c r="E105" t="s">
@@ -7218,18 +7127,15 @@
       <c r="G105" t="s">
         <v>15</v>
       </c>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="6"/>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
         <v>107</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106">
         <v>3</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106">
         <v>23523371</v>
       </c>
       <c r="D106" t="s">
@@ -7247,10 +7153,10 @@
       <c r="H106" t="s">
         <v>391</v>
       </c>
-      <c r="I106" s="1" t="s">
+      <c r="I106" t="s">
         <v>392</v>
       </c>
-      <c r="J106" s="7" t="s">
+      <c r="J106" t="s">
         <v>393</v>
       </c>
       <c r="K106">
@@ -7266,10 +7172,10 @@
         <v>251</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:7">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
+      <c r="B107"/>
+      <c r="C107"/>
       <c r="D107" t="s">
         <v>394</v>
       </c>
@@ -7282,8 +7188,6 @@
       <c r="G107" t="s">
         <v>10</v>
       </c>
-      <c r="I107" s="1"/>
-      <c r="J107" s="7"/>
     </row>
     <row r="108" spans="1:14">
       <c r="A108">
@@ -7304,7 +7208,7 @@
       <c r="I108" t="s">
         <v>397</v>
       </c>
-      <c r="J108" s="6" t="s">
+      <c r="J108" t="s">
         <v>398</v>
       </c>
       <c r="K108">
@@ -7348,7 +7252,7 @@
       <c r="I109" t="s">
         <v>401</v>
       </c>
-      <c r="J109" s="6" t="s">
+      <c r="J109" t="s">
         <v>402</v>
       </c>
       <c r="K109">
@@ -7392,7 +7296,7 @@
       <c r="I110" t="s">
         <v>405</v>
       </c>
-      <c r="J110" s="6" t="s">
+      <c r="J110" t="s">
         <v>406</v>
       </c>
       <c r="K110">
@@ -7427,7 +7331,7 @@
       <c r="I111" t="s">
         <v>410</v>
       </c>
-      <c r="J111" s="6" t="s">
+      <c r="J111" t="s">
         <v>411</v>
       </c>
       <c r="K111">
@@ -7471,7 +7375,7 @@
       <c r="I112" t="s">
         <v>416</v>
       </c>
-      <c r="J112" s="6" t="s">
+      <c r="J112" t="s">
         <v>417</v>
       </c>
       <c r="K112">
@@ -7506,7 +7410,7 @@
       <c r="I113" t="s">
         <v>419</v>
       </c>
-      <c r="J113" s="6" t="s">
+      <c r="J113" t="s">
         <v>420</v>
       </c>
       <c r="K113">
@@ -7541,7 +7445,7 @@
       <c r="I114" t="s">
         <v>421</v>
       </c>
-      <c r="J114" s="6" t="s">
+      <c r="J114" t="s">
         <v>422</v>
       </c>
       <c r="K114">
@@ -7582,7 +7486,7 @@
       <c r="I115" t="s">
         <v>426</v>
       </c>
-      <c r="J115" s="6" t="s">
+      <c r="J115" t="s">
         <v>427</v>
       </c>
       <c r="K115">
@@ -7602,10 +7506,10 @@
       <c r="A116" s="1">
         <v>119</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116">
         <v>3</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116">
         <v>25894280</v>
       </c>
       <c r="D116" t="s">
@@ -7620,13 +7524,13 @@
       <c r="G116" t="s">
         <v>10</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="H116" t="s">
         <v>430</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="I116" t="s">
         <v>431</v>
       </c>
-      <c r="J116" s="7" t="s">
+      <c r="J116" t="s">
         <v>432</v>
       </c>
       <c r="K116">
@@ -7642,10 +7546,10 @@
         <v>237</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:7">
       <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
+      <c r="B117"/>
+      <c r="C117"/>
       <c r="D117" t="s">
         <v>428</v>
       </c>
@@ -7658,9 +7562,6 @@
       <c r="G117" t="s">
         <v>15</v>
       </c>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="7"/>
     </row>
     <row r="118" spans="1:14">
       <c r="A118">
@@ -7681,7 +7582,7 @@
       <c r="I118" t="s">
         <v>436</v>
       </c>
-      <c r="J118" s="6" t="s">
+      <c r="J118" t="s">
         <v>437</v>
       </c>
       <c r="K118">
@@ -7716,7 +7617,7 @@
       <c r="I119" t="s">
         <v>440</v>
       </c>
-      <c r="J119" s="6" t="s">
+      <c r="J119" t="s">
         <v>441</v>
       </c>
       <c r="K119">
@@ -7754,7 +7655,7 @@
       <c r="I120" t="s">
         <v>444</v>
       </c>
-      <c r="J120" s="6" t="s">
+      <c r="J120" t="s">
         <v>445</v>
       </c>
       <c r="K120">
@@ -7774,10 +7675,10 @@
       <c r="A121" s="1">
         <v>126</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121">
         <v>3</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121">
         <v>30031117</v>
       </c>
       <c r="D121" t="s">
@@ -7789,10 +7690,10 @@
       <c r="F121" t="s">
         <v>447</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="I121" t="s">
         <v>448</v>
       </c>
-      <c r="J121" s="7" t="s">
+      <c r="J121" t="s">
         <v>449</v>
       </c>
       <c r="K121">
@@ -7808,40 +7709,36 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:8">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
+      <c r="B122"/>
+      <c r="C122"/>
       <c r="D122" t="s">
         <v>450</v>
       </c>
       <c r="H122" t="s">
         <v>451</v>
       </c>
-      <c r="I122" s="1"/>
-      <c r="J122" s="7"/>
-    </row>
-    <row r="123" spans="1:10">
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
+      <c r="B123"/>
+      <c r="C123"/>
       <c r="D123" t="s">
         <v>452</v>
       </c>
       <c r="H123" t="s">
         <v>453</v>
       </c>
-      <c r="I123" s="1"/>
-      <c r="J123" s="7"/>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="1">
         <v>128</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" t="s">
         <v>454</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124">
         <v>26427040</v>
       </c>
       <c r="D124" t="s">
@@ -7853,13 +7750,13 @@
       <c r="F124" t="s">
         <v>456</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="H124" t="s">
         <v>457</v>
       </c>
-      <c r="I124" s="1" t="s">
+      <c r="I124" t="s">
         <v>458</v>
       </c>
-      <c r="J124" s="7" t="s">
+      <c r="J124" t="s">
         <v>459</v>
       </c>
     </row>
@@ -7876,8 +7773,6 @@
       <c r="G125" t="s">
         <v>10</v>
       </c>
-      <c r="I125" s="1"/>
-      <c r="J125" s="6"/>
       <c r="K125">
         <v>30</v>
       </c>
@@ -7919,7 +7814,7 @@
       <c r="I126" t="s">
         <v>463</v>
       </c>
-      <c r="J126" s="6" t="s">
+      <c r="J126" t="s">
         <v>464</v>
       </c>
       <c r="K126">
@@ -7951,10 +7846,10 @@
       <c r="H127" t="s">
         <v>466</v>
       </c>
-      <c r="I127" s="3" t="s">
+      <c r="I127" t="s">
         <v>467</v>
       </c>
-      <c r="J127" s="6" t="s">
+      <c r="J127" t="s">
         <v>468</v>
       </c>
       <c r="K127">
@@ -7977,7 +7872,7 @@
       <c r="C128">
         <v>15264213</v>
       </c>
-      <c r="J128" s="6" t="s">
+      <c r="J128" t="s">
         <v>469</v>
       </c>
       <c r="K128">
@@ -8000,7 +7895,7 @@
       <c r="C129">
         <v>18345025</v>
       </c>
-      <c r="J129" s="6" t="s">
+      <c r="J129" t="s">
         <v>470</v>
       </c>
       <c r="K129">
@@ -8023,7 +7918,7 @@
       <c r="C130">
         <v>22696682</v>
       </c>
-      <c r="J130" s="6" t="s">
+      <c r="J130" t="s">
         <v>471</v>
       </c>
       <c r="K130">
@@ -8046,7 +7941,7 @@
       <c r="C131">
         <v>22761434</v>
       </c>
-      <c r="J131" s="6" t="s">
+      <c r="J131" t="s">
         <v>472</v>
       </c>
       <c r="K131">
@@ -8069,7 +7964,7 @@
       <c r="C132">
         <v>28460442</v>
       </c>
-      <c r="J132" s="6" t="s">
+      <c r="J132" t="s">
         <v>473</v>
       </c>
       <c r="K132">
@@ -8092,7 +7987,7 @@
       <c r="C133">
         <v>29061016</v>
       </c>
-      <c r="J133" s="6" t="s">
+      <c r="J133" t="s">
         <v>474</v>
       </c>
       <c r="K133">
@@ -8115,7 +8010,7 @@
       <c r="C134">
         <v>16489016</v>
       </c>
-      <c r="J134" s="6" t="s">
+      <c r="J134" t="s">
         <v>475</v>
       </c>
       <c r="K134">
@@ -8138,7 +8033,7 @@
       <c r="C135">
         <v>28474808</v>
       </c>
-      <c r="J135" s="6" t="s">
+      <c r="J135" t="s">
         <v>476</v>
       </c>
       <c r="K135">
@@ -8161,7 +8056,7 @@
       <c r="C136">
         <v>28791412</v>
       </c>
-      <c r="J136" s="6" t="s">
+      <c r="J136" t="s">
         <v>477</v>
       </c>
       <c r="K136">
@@ -8184,7 +8079,7 @@
       <c r="C137">
         <v>27228072</v>
       </c>
-      <c r="J137" s="6" t="s">
+      <c r="J137" t="s">
         <v>478</v>
       </c>
       <c r="K137">
@@ -8207,7 +8102,7 @@
       <c r="C138">
         <v>21159654</v>
       </c>
-      <c r="J138" s="6" t="s">
+      <c r="J138" t="s">
         <v>479</v>
       </c>
       <c r="K138">
@@ -8230,7 +8125,7 @@
       <c r="C139">
         <v>16959616</v>
       </c>
-      <c r="J139" s="6" t="s">
+      <c r="J139" t="s">
         <v>480</v>
       </c>
       <c r="K139">
@@ -8253,7 +8148,7 @@
       <c r="C140">
         <v>16052233</v>
       </c>
-      <c r="J140" s="6" t="s">
+      <c r="J140" t="s">
         <v>481</v>
       </c>
       <c r="K140">
@@ -8276,7 +8171,7 @@
       <c r="C141">
         <v>9468516</v>
       </c>
-      <c r="J141" s="6" t="s">
+      <c r="J141" t="s">
         <v>482</v>
       </c>
       <c r="K141">
@@ -8299,7 +8194,7 @@
       <c r="C142">
         <v>28615056</v>
       </c>
-      <c r="J142" s="6" t="s">
+      <c r="J142" t="s">
         <v>483</v>
       </c>
       <c r="K142">
@@ -8322,7 +8217,7 @@
       <c r="C143">
         <v>23659968</v>
       </c>
-      <c r="J143" s="6" t="s">
+      <c r="J143" t="s">
         <v>484</v>
       </c>
       <c r="K143">
@@ -8345,7 +8240,7 @@
       <c r="C144">
         <v>21192845</v>
       </c>
-      <c r="J144" s="6" t="s">
+      <c r="J144" t="s">
         <v>485</v>
       </c>
       <c r="K144">
@@ -8368,7 +8263,7 @@
       <c r="C145">
         <v>30475207</v>
       </c>
-      <c r="J145" s="6" t="s">
+      <c r="J145" t="s">
         <v>486</v>
       </c>
       <c r="K145">
@@ -8391,7 +8286,7 @@
       <c r="C146">
         <v>21552115</v>
       </c>
-      <c r="J146" s="6" t="s">
+      <c r="J146" t="s">
         <v>487</v>
       </c>
       <c r="K146">
@@ -8414,8 +8309,8 @@
       <c r="C147">
         <v>9169462</v>
       </c>
-      <c r="D147" s="6"/>
-      <c r="J147" s="6" t="s">
+      <c r="D147"/>
+      <c r="J147" t="s">
         <v>488</v>
       </c>
       <c r="K147">
@@ -8438,8 +8333,8 @@
       <c r="C148">
         <v>24140068</v>
       </c>
-      <c r="D148" s="6"/>
-      <c r="J148" s="6" t="s">
+      <c r="D148"/>
+      <c r="J148" t="s">
         <v>489</v>
       </c>
       <c r="K148">
@@ -8462,8 +8357,8 @@
       <c r="C149">
         <v>21367515</v>
       </c>
-      <c r="D149" s="6"/>
-      <c r="J149" s="6" t="s">
+      <c r="D149"/>
+      <c r="J149" t="s">
         <v>490</v>
       </c>
       <c r="K149">
@@ -8486,8 +8381,8 @@
       <c r="C150">
         <v>16119980</v>
       </c>
-      <c r="D150" s="6"/>
-      <c r="J150" s="6" t="s">
+      <c r="D150"/>
+      <c r="J150" t="s">
         <v>491</v>
       </c>
       <c r="K150">
@@ -8510,8 +8405,8 @@
       <c r="C151">
         <v>2725496</v>
       </c>
-      <c r="D151" s="6"/>
-      <c r="J151" s="6" t="s">
+      <c r="D151"/>
+      <c r="J151" t="s">
         <v>492</v>
       </c>
       <c r="K151">
@@ -8534,8 +8429,8 @@
       <c r="C152">
         <v>29079814</v>
       </c>
-      <c r="D152" s="6"/>
-      <c r="J152" s="6" t="s">
+      <c r="D152"/>
+      <c r="J152" t="s">
         <v>493</v>
       </c>
       <c r="K152">
@@ -8558,8 +8453,8 @@
       <c r="C153">
         <v>28285961</v>
       </c>
-      <c r="D153" s="6"/>
-      <c r="J153" s="6" t="s">
+      <c r="D153"/>
+      <c r="J153" t="s">
         <v>494</v>
       </c>
       <c r="K153">
@@ -8582,8 +8477,8 @@
       <c r="C154">
         <v>27588392</v>
       </c>
-      <c r="D154" s="6"/>
-      <c r="J154" s="6" t="s">
+      <c r="D154"/>
+      <c r="J154" t="s">
         <v>495</v>
       </c>
       <c r="K154">
@@ -8606,8 +8501,8 @@
       <c r="C155">
         <v>19064983</v>
       </c>
-      <c r="D155" s="6"/>
-      <c r="J155" s="6" t="s">
+      <c r="D155"/>
+      <c r="J155" t="s">
         <v>496</v>
       </c>
       <c r="K155">
@@ -8630,8 +8525,8 @@
       <c r="C156">
         <v>28351980</v>
       </c>
-      <c r="D156" s="6"/>
-      <c r="J156" s="6" t="s">
+      <c r="D156"/>
+      <c r="J156" t="s">
         <v>497</v>
       </c>
       <c r="K156">
@@ -8654,7 +8549,7 @@
       <c r="C157">
         <v>19234440</v>
       </c>
-      <c r="J157" s="6" t="s">
+      <c r="J157" t="s">
         <v>498</v>
       </c>
       <c r="K157">
@@ -8677,7 +8572,7 @@
       <c r="C158">
         <v>27521795</v>
       </c>
-      <c r="J158" s="6" t="s">
+      <c r="J158" t="s">
         <v>499</v>
       </c>
       <c r="K158">
@@ -8700,7 +8595,7 @@
       <c r="C159">
         <v>28860622</v>
       </c>
-      <c r="J159" s="6" t="s">
+      <c r="J159" t="s">
         <v>500</v>
       </c>
       <c r="K159">
@@ -8723,7 +8618,7 @@
       <c r="C160">
         <v>28737489</v>
       </c>
-      <c r="J160" s="6" t="s">
+      <c r="J160" t="s">
         <v>501</v>
       </c>
       <c r="K160">
@@ -8746,7 +8641,7 @@
       <c r="C161">
         <v>26590121</v>
       </c>
-      <c r="J161" s="6" t="s">
+      <c r="J161" t="s">
         <v>502</v>
       </c>
       <c r="K161">
@@ -8769,7 +8664,7 @@
       <c r="C162">
         <v>21325940</v>
       </c>
-      <c r="J162" s="6" t="s">
+      <c r="J162" t="s">
         <v>503</v>
       </c>
       <c r="K162">
@@ -8792,7 +8687,7 @@
       <c r="C163">
         <v>23271813</v>
       </c>
-      <c r="J163" s="6" t="s">
+      <c r="J163" t="s">
         <v>504</v>
       </c>
       <c r="K163">
@@ -8815,7 +8710,7 @@
       <c r="C164">
         <v>27706758</v>
       </c>
-      <c r="J164" s="6" t="s">
+      <c r="J164" t="s">
         <v>505</v>
       </c>
       <c r="K164">
@@ -8838,7 +8733,7 @@
       <c r="C165">
         <v>23620753</v>
       </c>
-      <c r="J165" s="6" t="s">
+      <c r="J165" t="s">
         <v>506</v>
       </c>
       <c r="K165">
@@ -8861,7 +8756,7 @@
       <c r="C166">
         <v>28887320</v>
       </c>
-      <c r="J166" s="6" t="s">
+      <c r="J166" t="s">
         <v>507</v>
       </c>
       <c r="K166">
@@ -8884,7 +8779,7 @@
       <c r="C167">
         <v>29636079</v>
       </c>
-      <c r="J167" s="6" t="s">
+      <c r="J167" t="s">
         <v>508</v>
       </c>
       <c r="K167">
@@ -8907,7 +8802,7 @@
       <c r="C168">
         <v>26402252</v>
       </c>
-      <c r="J168" s="6" t="s">
+      <c r="J168" t="s">
         <v>509</v>
       </c>
       <c r="K168">
@@ -8930,7 +8825,7 @@
       <c r="C169">
         <v>26395571</v>
       </c>
-      <c r="J169" s="6" t="s">
+      <c r="J169" t="s">
         <v>510</v>
       </c>
       <c r="K169">
@@ -8953,7 +8848,7 @@
       <c r="C170">
         <v>25609130</v>
       </c>
-      <c r="J170" s="6" t="s">
+      <c r="J170" t="s">
         <v>511</v>
       </c>
       <c r="K170">
@@ -8976,7 +8871,7 @@
       <c r="C171">
         <v>24766860</v>
       </c>
-      <c r="J171" s="6" t="s">
+      <c r="J171" t="s">
         <v>512</v>
       </c>
       <c r="K171">
@@ -8999,7 +8894,7 @@
       <c r="C172">
         <v>15614737</v>
       </c>
-      <c r="J172" s="6" t="s">
+      <c r="J172" t="s">
         <v>513</v>
       </c>
       <c r="K172">
@@ -9022,7 +8917,7 @@
       <c r="C173">
         <v>30127402</v>
       </c>
-      <c r="J173" s="6" t="s">
+      <c r="J173" t="s">
         <v>514</v>
       </c>
       <c r="K173">
@@ -9045,7 +8940,7 @@
       <c r="C174">
         <v>28377053</v>
       </c>
-      <c r="J174" s="6" t="s">
+      <c r="J174" t="s">
         <v>515</v>
       </c>
       <c r="K174">
@@ -9068,7 +8963,7 @@
       <c r="C175">
         <v>25844669</v>
       </c>
-      <c r="J175" s="6" t="s">
+      <c r="J175" t="s">
         <v>516</v>
       </c>
       <c r="K175">
@@ -9091,7 +8986,7 @@
       <c r="C176">
         <v>25120788</v>
       </c>
-      <c r="J176" s="6" t="s">
+      <c r="J176" t="s">
         <v>517</v>
       </c>
       <c r="K176">
@@ -9114,7 +9009,7 @@
       <c r="C177">
         <v>25875824</v>
       </c>
-      <c r="J177" s="6" t="s">
+      <c r="J177" t="s">
         <v>518</v>
       </c>
       <c r="K177">
@@ -9137,7 +9032,7 @@
       <c r="C178">
         <v>28128193</v>
       </c>
-      <c r="J178" s="6" t="s">
+      <c r="J178" t="s">
         <v>519</v>
       </c>
       <c r="K178">
@@ -9160,7 +9055,7 @@
       <c r="C179">
         <v>22208386</v>
       </c>
-      <c r="J179" s="6" t="s">
+      <c r="J179" t="s">
         <v>520</v>
       </c>
       <c r="K179">
@@ -9183,7 +9078,7 @@
       <c r="C180">
         <v>9064286</v>
       </c>
-      <c r="J180" s="6" t="s">
+      <c r="J180" t="s">
         <v>521</v>
       </c>
       <c r="K180">
@@ -9206,7 +9101,7 @@
       <c r="C181">
         <v>28506662</v>
       </c>
-      <c r="J181" s="6" t="s">
+      <c r="J181" t="s">
         <v>522</v>
       </c>
       <c r="K181">
@@ -9229,7 +9124,7 @@
       <c r="C182">
         <v>19047914</v>
       </c>
-      <c r="J182" s="6" t="s">
+      <c r="J182" t="s">
         <v>523</v>
       </c>
       <c r="K182">
@@ -9252,7 +9147,7 @@
       <c r="C183">
         <v>21287692</v>
       </c>
-      <c r="J183" s="6" t="s">
+      <c r="J183" t="s">
         <v>524</v>
       </c>
       <c r="K183">
@@ -9275,7 +9170,7 @@
       <c r="C184">
         <v>24040073</v>
       </c>
-      <c r="J184" s="6" t="s">
+      <c r="J184" t="s">
         <v>525</v>
       </c>
       <c r="K184">
@@ -9298,7 +9193,7 @@
       <c r="C185">
         <v>26385919</v>
       </c>
-      <c r="J185" s="6" t="s">
+      <c r="J185" t="s">
         <v>526</v>
       </c>
       <c r="K185">
@@ -9321,7 +9216,7 @@
       <c r="C186">
         <v>27496649</v>
       </c>
-      <c r="J186" s="6" t="s">
+      <c r="J186" t="s">
         <v>527</v>
       </c>
       <c r="K186">
@@ -9344,7 +9239,7 @@
       <c r="C187">
         <v>23255470</v>
       </c>
-      <c r="J187" s="6" t="s">
+      <c r="J187" t="s">
         <v>528</v>
       </c>
       <c r="K187">
@@ -9367,7 +9262,7 @@
       <c r="C188">
         <v>26078725</v>
       </c>
-      <c r="J188" s="6" t="s">
+      <c r="J188" t="s">
         <v>529</v>
       </c>
       <c r="K188">
@@ -9390,7 +9285,7 @@
       <c r="C189">
         <v>23129625</v>
       </c>
-      <c r="J189" s="6" t="s">
+      <c r="J189" t="s">
         <v>530</v>
       </c>
       <c r="K189">
@@ -9413,7 +9308,7 @@
       <c r="C190">
         <v>28987793</v>
       </c>
-      <c r="J190" s="6" t="s">
+      <c r="J190" t="s">
         <v>531</v>
       </c>
       <c r="K190">
@@ -9436,7 +9331,7 @@
       <c r="C191">
         <v>15047742</v>
       </c>
-      <c r="J191" s="6" t="s">
+      <c r="J191" t="s">
         <v>532</v>
       </c>
       <c r="K191">
@@ -9459,7 +9354,7 @@
       <c r="C192">
         <v>26798987</v>
       </c>
-      <c r="J192" s="6" t="s">
+      <c r="J192" t="s">
         <v>533</v>
       </c>
       <c r="K192">
@@ -9482,7 +9377,7 @@
       <c r="C193">
         <v>24828662</v>
       </c>
-      <c r="J193" s="6" t="s">
+      <c r="J193" t="s">
         <v>534</v>
       </c>
       <c r="K193">
@@ -9505,7 +9400,7 @@
       <c r="C194">
         <v>26912193</v>
       </c>
-      <c r="J194" s="6" t="s">
+      <c r="J194" t="s">
         <v>535</v>
       </c>
       <c r="K194">
@@ -9528,7 +9423,7 @@
       <c r="C195">
         <v>20631076</v>
       </c>
-      <c r="J195" s="6" t="s">
+      <c r="J195" t="s">
         <v>536</v>
       </c>
       <c r="K195">
@@ -9551,7 +9446,7 @@
       <c r="C196">
         <v>28381546</v>
       </c>
-      <c r="J196" s="6" t="s">
+      <c r="J196" t="s">
         <v>537</v>
       </c>
       <c r="K196">
@@ -9574,8 +9469,8 @@
       <c r="C197">
         <v>9371773</v>
       </c>
-      <c r="D197" s="6"/>
-      <c r="J197" s="6" t="s">
+      <c r="D197"/>
+      <c r="J197" t="s">
         <v>538</v>
       </c>
       <c r="K197">
@@ -9598,8 +9493,8 @@
       <c r="C198">
         <v>23041549</v>
       </c>
-      <c r="D198" s="6"/>
-      <c r="J198" s="6" t="s">
+      <c r="D198"/>
+      <c r="J198" t="s">
         <v>539</v>
       </c>
       <c r="K198">
@@ -9622,8 +9517,8 @@
       <c r="C199">
         <v>26081590</v>
       </c>
-      <c r="D199" s="6"/>
-      <c r="J199" s="6" t="s">
+      <c r="D199"/>
+      <c r="J199" t="s">
         <v>540</v>
       </c>
       <c r="K199">
@@ -9646,8 +9541,8 @@
       <c r="C200">
         <v>27150038</v>
       </c>
-      <c r="D200" s="6"/>
-      <c r="J200" s="6" t="s">
+      <c r="D200"/>
+      <c r="J200" t="s">
         <v>541</v>
       </c>
       <c r="K200">
@@ -9670,8 +9565,8 @@
       <c r="C201">
         <v>15951564</v>
       </c>
-      <c r="D201" s="6"/>
-      <c r="J201" s="6" t="s">
+      <c r="D201"/>
+      <c r="J201" t="s">
         <v>542</v>
       </c>
       <c r="K201">
@@ -9694,8 +9589,8 @@
       <c r="C202">
         <v>16705796</v>
       </c>
-      <c r="D202" s="6"/>
-      <c r="J202" s="6" t="s">
+      <c r="D202"/>
+      <c r="J202" t="s">
         <v>543</v>
       </c>
       <c r="K202">
@@ -9718,8 +9613,8 @@
       <c r="C203">
         <v>12930693</v>
       </c>
-      <c r="D203" s="6"/>
-      <c r="J203" s="6" t="s">
+      <c r="D203"/>
+      <c r="J203" t="s">
         <v>544</v>
       </c>
       <c r="K203">
@@ -9742,8 +9637,8 @@
       <c r="C204">
         <v>28616902</v>
       </c>
-      <c r="D204" s="6"/>
-      <c r="J204" s="6" t="s">
+      <c r="D204"/>
+      <c r="J204" t="s">
         <v>545</v>
       </c>
       <c r="K204">
@@ -9766,8 +9661,8 @@
       <c r="C205">
         <v>28344883</v>
       </c>
-      <c r="D205" s="6"/>
-      <c r="J205" s="6" t="s">
+      <c r="D205"/>
+      <c r="J205" t="s">
         <v>546</v>
       </c>
       <c r="K205">
@@ -9790,8 +9685,8 @@
       <c r="C206">
         <v>25666088</v>
       </c>
-      <c r="D206" s="6"/>
-      <c r="J206" s="6" t="s">
+      <c r="D206"/>
+      <c r="J206" t="s">
         <v>547</v>
       </c>
       <c r="K206">
@@ -9814,7 +9709,7 @@
       <c r="C207">
         <v>22237264</v>
       </c>
-      <c r="J207" s="6" t="s">
+      <c r="J207" t="s">
         <v>548</v>
       </c>
       <c r="K207">
@@ -9837,7 +9732,7 @@
       <c r="C208">
         <v>23002211</v>
       </c>
-      <c r="J208" s="6" t="s">
+      <c r="J208" t="s">
         <v>549</v>
       </c>
       <c r="K208">
@@ -9860,7 +9755,7 @@
       <c r="C209">
         <v>29410129</v>
       </c>
-      <c r="J209" s="6" t="s">
+      <c r="J209" t="s">
         <v>550</v>
       </c>
       <c r="K209">
@@ -9883,7 +9778,7 @@
       <c r="C210">
         <v>22846220</v>
       </c>
-      <c r="J210" s="6" t="s">
+      <c r="J210" t="s">
         <v>551</v>
       </c>
       <c r="K210">
@@ -9906,7 +9801,7 @@
       <c r="C211">
         <v>19380174</v>
       </c>
-      <c r="J211" s="6" t="s">
+      <c r="J211" t="s">
         <v>552</v>
       </c>
       <c r="K211">
@@ -9929,7 +9824,7 @@
       <c r="C212">
         <v>11415937</v>
       </c>
-      <c r="J212" s="6" t="s">
+      <c r="J212" t="s">
         <v>553</v>
       </c>
       <c r="K212">
@@ -9952,7 +9847,7 @@
       <c r="C213">
         <v>28945219</v>
       </c>
-      <c r="J213" s="6" t="s">
+      <c r="J213" t="s">
         <v>554</v>
       </c>
       <c r="K213">
@@ -9975,7 +9870,7 @@
       <c r="C214">
         <v>22460811</v>
       </c>
-      <c r="J214" s="6" t="s">
+      <c r="J214" t="s">
         <v>555</v>
       </c>
       <c r="K214">
@@ -9998,7 +9893,7 @@
       <c r="C215">
         <v>25868726</v>
       </c>
-      <c r="J215" s="6" t="s">
+      <c r="J215" t="s">
         <v>556</v>
       </c>
       <c r="K215">
@@ -10021,7 +9916,7 @@
       <c r="C216">
         <v>12517954</v>
       </c>
-      <c r="J216" s="6" t="s">
+      <c r="J216" t="s">
         <v>557</v>
       </c>
       <c r="K216">
@@ -10044,7 +9939,7 @@
       <c r="C217">
         <v>27856637</v>
       </c>
-      <c r="J217" s="6" t="s">
+      <c r="J217" t="s">
         <v>558</v>
       </c>
       <c r="K217">
@@ -10067,7 +9962,7 @@
       <c r="C218">
         <v>29072684</v>
       </c>
-      <c r="J218" s="6" t="s">
+      <c r="J218" t="s">
         <v>559</v>
       </c>
       <c r="K218">
@@ -10090,7 +9985,7 @@
       <c r="C219">
         <v>27568346</v>
       </c>
-      <c r="J219" s="6" t="s">
+      <c r="J219" t="s">
         <v>560</v>
       </c>
       <c r="K219">
@@ -10113,7 +10008,7 @@
       <c r="C220">
         <v>23815338</v>
       </c>
-      <c r="J220" s="6" t="s">
+      <c r="J220" t="s">
         <v>561</v>
       </c>
       <c r="K220">
@@ -10136,7 +10031,7 @@
       <c r="C221">
         <v>23645454</v>
       </c>
-      <c r="J221" s="6" t="s">
+      <c r="J221" t="s">
         <v>562</v>
       </c>
       <c r="K221">
@@ -10159,7 +10054,7 @@
       <c r="C222">
         <v>17606426</v>
       </c>
-      <c r="J222" s="6" t="s">
+      <c r="J222" t="s">
         <v>563</v>
       </c>
       <c r="K222">
@@ -10182,7 +10077,7 @@
       <c r="C223">
         <v>26705222</v>
       </c>
-      <c r="J223" s="6" t="s">
+      <c r="J223" t="s">
         <v>564</v>
       </c>
       <c r="K223">
@@ -10205,7 +10100,7 @@
       <c r="C224">
         <v>22966403</v>
       </c>
-      <c r="J224" s="6" t="s">
+      <c r="J224" t="s">
         <v>565</v>
       </c>
       <c r="K224">
@@ -10228,7 +10123,7 @@
       <c r="C225">
         <v>19060016</v>
       </c>
-      <c r="J225" s="6" t="s">
+      <c r="J225" t="s">
         <v>566</v>
       </c>
       <c r="K225">
@@ -10251,7 +10146,7 @@
       <c r="C226">
         <v>20830690</v>
       </c>
-      <c r="J226" s="6" t="s">
+      <c r="J226" t="s">
         <v>567</v>
       </c>
       <c r="K226">
@@ -10274,7 +10169,7 @@
       <c r="C227">
         <v>25028470</v>
       </c>
-      <c r="J227" s="6" t="s">
+      <c r="J227" t="s">
         <v>568</v>
       </c>
       <c r="K227">
@@ -10297,7 +10192,7 @@
       <c r="C228">
         <v>23224985</v>
       </c>
-      <c r="J228" s="6" t="s">
+      <c r="J228" t="s">
         <v>569</v>
       </c>
       <c r="K228">
@@ -10320,7 +10215,7 @@
       <c r="C229">
         <v>12009233</v>
       </c>
-      <c r="J229" s="6" t="s">
+      <c r="J229" t="s">
         <v>570</v>
       </c>
       <c r="K229">
@@ -10343,7 +10238,7 @@
       <c r="C230">
         <v>24833526</v>
       </c>
-      <c r="J230" s="6" t="s">
+      <c r="J230" t="s">
         <v>571</v>
       </c>
       <c r="K230">
@@ -10366,7 +10261,7 @@
       <c r="C231">
         <v>17982442</v>
       </c>
-      <c r="J231" s="6" t="s">
+      <c r="J231" t="s">
         <v>572</v>
       </c>
       <c r="K231">
@@ -10389,7 +10284,7 @@
       <c r="C232">
         <v>27655285</v>
       </c>
-      <c r="J232" s="6" t="s">
+      <c r="J232" t="s">
         <v>573</v>
       </c>
       <c r="K232">
@@ -10412,7 +10307,7 @@
       <c r="C233">
         <v>21703258</v>
       </c>
-      <c r="J233" s="6" t="s">
+      <c r="J233" t="s">
         <v>574</v>
       </c>
       <c r="K233">
@@ -10435,7 +10330,7 @@
       <c r="C234">
         <v>23096929</v>
       </c>
-      <c r="J234" s="6" t="s">
+      <c r="J234" t="s">
         <v>575</v>
       </c>
       <c r="K234">
@@ -10458,7 +10353,7 @@
       <c r="C235">
         <v>22186896</v>
       </c>
-      <c r="J235" s="6" t="s">
+      <c r="J235" t="s">
         <v>576</v>
       </c>
       <c r="K235">
@@ -10481,7 +10376,7 @@
       <c r="C236">
         <v>18373697</v>
       </c>
-      <c r="J236" s="6" t="s">
+      <c r="J236" t="s">
         <v>577</v>
       </c>
       <c r="K236">
@@ -10504,7 +10399,7 @@
       <c r="C237">
         <v>28515486</v>
       </c>
-      <c r="J237" s="6" t="s">
+      <c r="J237" t="s">
         <v>578</v>
       </c>
       <c r="K237">
@@ -10527,7 +10422,7 @@
       <c r="C238">
         <v>26829311</v>
       </c>
-      <c r="J238" s="6" t="s">
+      <c r="J238" t="s">
         <v>579</v>
       </c>
       <c r="K238">
@@ -10550,7 +10445,7 @@
       <c r="C239">
         <v>15188024</v>
       </c>
-      <c r="J239" s="6" t="s">
+      <c r="J239" t="s">
         <v>580</v>
       </c>
       <c r="K239">
@@ -10573,7 +10468,7 @@
       <c r="C240">
         <v>25873201</v>
       </c>
-      <c r="J240" s="6" t="s">
+      <c r="J240" t="s">
         <v>581</v>
       </c>
       <c r="K240">
@@ -10596,7 +10491,7 @@
       <c r="C241">
         <v>16138374</v>
       </c>
-      <c r="J241" s="6" t="s">
+      <c r="J241" t="s">
         <v>582</v>
       </c>
       <c r="K241">
@@ -10619,7 +10514,7 @@
       <c r="C242">
         <v>30511267</v>
       </c>
-      <c r="J242" s="6" t="s">
+      <c r="J242" t="s">
         <v>583</v>
       </c>
       <c r="K242">
@@ -10642,7 +10537,7 @@
       <c r="C243">
         <v>26619802</v>
       </c>
-      <c r="J243" s="6" t="s">
+      <c r="J243" t="s">
         <v>584</v>
       </c>
       <c r="K243">
@@ -10665,7 +10560,7 @@
       <c r="C244">
         <v>12023581</v>
       </c>
-      <c r="J244" s="6" t="s">
+      <c r="J244" t="s">
         <v>585</v>
       </c>
       <c r="K244">
@@ -10688,7 +10583,7 @@
       <c r="C245">
         <v>30008847</v>
       </c>
-      <c r="J245" s="6" t="s">
+      <c r="J245" t="s">
         <v>586</v>
       </c>
       <c r="K245">
@@ -10711,7 +10606,7 @@
       <c r="C246">
         <v>30384810</v>
       </c>
-      <c r="J246" s="6" t="s">
+      <c r="J246" t="s">
         <v>587</v>
       </c>
       <c r="K246">
@@ -10734,7 +10629,7 @@
       <c r="C247">
         <v>20036260</v>
       </c>
-      <c r="J247" s="6" t="s">
+      <c r="J247" t="s">
         <v>588</v>
       </c>
       <c r="K247">
@@ -10757,7 +10652,7 @@
       <c r="C248">
         <v>11957142</v>
       </c>
-      <c r="J248" s="6" t="s">
+      <c r="J248" t="s">
         <v>589</v>
       </c>
       <c r="K248">
@@ -10780,7 +10675,7 @@
       <c r="C249">
         <v>21464700</v>
       </c>
-      <c r="J249" s="6" t="s">
+      <c r="J249" t="s">
         <v>590</v>
       </c>
       <c r="K249">
@@ -10803,7 +10698,7 @@
       <c r="C250">
         <v>26200450</v>
       </c>
-      <c r="J250" s="6" t="s">
+      <c r="J250" t="s">
         <v>591</v>
       </c>
       <c r="K250">
@@ -10826,7 +10721,7 @@
       <c r="C251">
         <v>16900348</v>
       </c>
-      <c r="J251" s="6" t="s">
+      <c r="J251" t="s">
         <v>592</v>
       </c>
       <c r="K251">
@@ -10849,7 +10744,7 @@
       <c r="C252">
         <v>19956905</v>
       </c>
-      <c r="J252" s="6" t="s">
+      <c r="J252" t="s">
         <v>593</v>
       </c>
       <c r="K252">
@@ -10872,7 +10767,7 @@
       <c r="C253">
         <v>23707782</v>
       </c>
-      <c r="J253" s="6" t="s">
+      <c r="J253" t="s">
         <v>594</v>
       </c>
       <c r="K253">
@@ -10895,7 +10790,7 @@
       <c r="C254">
         <v>26098749</v>
       </c>
-      <c r="J254" s="6" t="s">
+      <c r="J254" t="s">
         <v>595</v>
       </c>
       <c r="K254">
@@ -10918,7 +10813,7 @@
       <c r="C255">
         <v>19483637</v>
       </c>
-      <c r="J255" s="6" t="s">
+      <c r="J255" t="s">
         <v>596</v>
       </c>
       <c r="K255">
@@ -10941,7 +10836,7 @@
       <c r="C256">
         <v>20117855</v>
       </c>
-      <c r="J256" s="6" t="s">
+      <c r="J256" t="s">
         <v>597</v>
       </c>
       <c r="K256">
@@ -10964,7 +10859,7 @@
       <c r="C257">
         <v>24725383</v>
       </c>
-      <c r="J257" s="6" t="s">
+      <c r="J257" t="s">
         <v>598</v>
       </c>
       <c r="K257">
@@ -10987,7 +10882,7 @@
       <c r="C258">
         <v>29299121</v>
       </c>
-      <c r="J258" s="6" t="s">
+      <c r="J258" t="s">
         <v>599</v>
       </c>
       <c r="K258">
@@ -11010,7 +10905,7 @@
       <c r="C259">
         <v>29590536</v>
       </c>
-      <c r="J259" s="6" t="s">
+      <c r="J259" t="s">
         <v>600</v>
       </c>
       <c r="K259">
@@ -11033,7 +10928,7 @@
       <c r="C260">
         <v>25767874</v>
       </c>
-      <c r="J260" s="6" t="s">
+      <c r="J260" t="s">
         <v>601</v>
       </c>
       <c r="K260">
@@ -11056,7 +10951,7 @@
       <c r="C261">
         <v>12152164</v>
       </c>
-      <c r="J261" s="6" t="s">
+      <c r="J261" t="s">
         <v>602</v>
       </c>
       <c r="K261">
@@ -11079,7 +10974,7 @@
       <c r="C262">
         <v>23637102</v>
       </c>
-      <c r="J262" s="6" t="s">
+      <c r="J262" t="s">
         <v>603</v>
       </c>
       <c r="K262">
@@ -11102,7 +10997,7 @@
       <c r="C263">
         <v>27176047</v>
       </c>
-      <c r="J263" s="6" t="s">
+      <c r="J263" t="s">
         <v>604</v>
       </c>
       <c r="K263">
@@ -11125,7 +11020,7 @@
       <c r="C264">
         <v>30169783</v>
       </c>
-      <c r="J264" s="6" t="s">
+      <c r="J264" t="s">
         <v>605</v>
       </c>
       <c r="K264">
@@ -11148,7 +11043,7 @@
       <c r="C265">
         <v>17549351</v>
       </c>
-      <c r="J265" s="6" t="s">
+      <c r="J265" t="s">
         <v>606</v>
       </c>
       <c r="K265">
@@ -11171,7 +11066,7 @@
       <c r="C266">
         <v>14693848</v>
       </c>
-      <c r="J266" s="6" t="s">
+      <c r="J266" t="s">
         <v>607</v>
       </c>
       <c r="K266">
@@ -11194,7 +11089,7 @@
       <c r="C267">
         <v>26282502</v>
       </c>
-      <c r="J267" s="6" t="s">
+      <c r="J267" t="s">
         <v>608</v>
       </c>
       <c r="K267">
@@ -11217,7 +11112,7 @@
       <c r="C268">
         <v>23667589</v>
       </c>
-      <c r="J268" s="6" t="s">
+      <c r="J268" t="s">
         <v>609</v>
       </c>
       <c r="K268">
@@ -11240,7 +11135,7 @@
       <c r="C269">
         <v>29299165</v>
       </c>
-      <c r="J269" s="6" t="s">
+      <c r="J269" t="s">
         <v>610</v>
       </c>
       <c r="K269">
@@ -11263,7 +11158,7 @@
       <c r="C270">
         <v>24564251</v>
       </c>
-      <c r="J270" s="6" t="s">
+      <c r="J270" t="s">
         <v>611</v>
       </c>
       <c r="K270">
@@ -11286,7 +11181,7 @@
       <c r="C271">
         <v>24578300</v>
       </c>
-      <c r="J271" s="6" t="s">
+      <c r="J271" t="s">
         <v>612</v>
       </c>
       <c r="K271">
@@ -11309,7 +11204,7 @@
       <c r="C272">
         <v>9850647</v>
       </c>
-      <c r="J272" s="6" t="s">
+      <c r="J272" t="s">
         <v>613</v>
       </c>
       <c r="K272">
@@ -11332,7 +11227,7 @@
       <c r="C273">
         <v>26767003</v>
       </c>
-      <c r="J273" s="6" t="s">
+      <c r="J273" t="s">
         <v>614</v>
       </c>
       <c r="K273">
@@ -11355,7 +11250,7 @@
       <c r="C274">
         <v>12378596</v>
       </c>
-      <c r="J274" s="6" t="s">
+      <c r="J274" t="s">
         <v>615</v>
       </c>
       <c r="K274">
@@ -11378,7 +11273,7 @@
       <c r="C275">
         <v>24867094</v>
       </c>
-      <c r="J275" s="6" t="s">
+      <c r="J275" t="s">
         <v>616</v>
       </c>
       <c r="K275">
@@ -11401,7 +11296,7 @@
       <c r="C276">
         <v>18801593</v>
       </c>
-      <c r="J276" s="6" t="s">
+      <c r="J276" t="s">
         <v>617</v>
       </c>
       <c r="K276">
@@ -11424,7 +11319,7 @@
       <c r="C277">
         <v>21333376</v>
       </c>
-      <c r="J277" s="6" t="s">
+      <c r="J277" t="s">
         <v>618</v>
       </c>
       <c r="K277">
@@ -11447,7 +11342,7 @@
       <c r="C278">
         <v>29658609</v>
       </c>
-      <c r="J278" s="6" t="s">
+      <c r="J278" t="s">
         <v>619</v>
       </c>
       <c r="K278">
@@ -11470,7 +11365,7 @@
       <c r="C279">
         <v>11849044</v>
       </c>
-      <c r="J279" s="6" t="s">
+      <c r="J279" t="s">
         <v>620</v>
       </c>
       <c r="K279">
@@ -11493,7 +11388,7 @@
       <c r="C280">
         <v>28005074</v>
       </c>
-      <c r="J280" s="6" t="s">
+      <c r="J280" t="s">
         <v>621</v>
       </c>
       <c r="K280">
@@ -11516,7 +11411,7 @@
       <c r="C281">
         <v>24651909</v>
       </c>
-      <c r="J281" s="6" t="s">
+      <c r="J281" t="s">
         <v>622</v>
       </c>
       <c r="K281">
@@ -11539,7 +11434,7 @@
       <c r="C282">
         <v>23485710</v>
       </c>
-      <c r="J282" s="6" t="s">
+      <c r="J282" t="s">
         <v>623</v>
       </c>
       <c r="K282">
@@ -11562,7 +11457,7 @@
       <c r="C283">
         <v>24292262</v>
       </c>
-      <c r="J283" s="6" t="s">
+      <c r="J283" t="s">
         <v>624</v>
       </c>
       <c r="K283">
@@ -11585,7 +11480,7 @@
       <c r="C284">
         <v>26718964</v>
       </c>
-      <c r="J284" s="6" t="s">
+      <c r="J284" t="s">
         <v>625</v>
       </c>
       <c r="K284">
@@ -11608,7 +11503,7 @@
       <c r="C285">
         <v>25594059</v>
       </c>
-      <c r="J285" s="6" t="s">
+      <c r="J285" t="s">
         <v>626</v>
       </c>
       <c r="K285">
@@ -11631,7 +11526,7 @@
       <c r="C286">
         <v>29928392</v>
       </c>
-      <c r="J286" s="6" t="s">
+      <c r="J286" t="s">
         <v>627</v>
       </c>
       <c r="K286">
@@ -11654,7 +11549,7 @@
       <c r="C287">
         <v>11234300</v>
       </c>
-      <c r="J287" s="6" t="s">
+      <c r="J287" t="s">
         <v>628</v>
       </c>
       <c r="K287">
@@ -11677,7 +11572,7 @@
       <c r="C288">
         <v>23599802</v>
       </c>
-      <c r="J288" s="6" t="s">
+      <c r="J288" t="s">
         <v>629</v>
       </c>
       <c r="K288">
@@ -11700,7 +11595,7 @@
       <c r="C289">
         <v>21040996</v>
       </c>
-      <c r="J289" s="6" t="s">
+      <c r="J289" t="s">
         <v>630</v>
       </c>
       <c r="K289">
@@ -11723,7 +11618,7 @@
       <c r="C290">
         <v>24113574</v>
       </c>
-      <c r="J290" s="6" t="s">
+      <c r="J290" t="s">
         <v>631</v>
       </c>
       <c r="K290">
@@ -11746,7 +11641,7 @@
       <c r="C291">
         <v>30429033</v>
       </c>
-      <c r="J291" s="6" t="s">
+      <c r="J291" t="s">
         <v>632</v>
       </c>
       <c r="K291">
@@ -11769,7 +11664,7 @@
       <c r="C292">
         <v>8276819</v>
       </c>
-      <c r="J292" s="6" t="s">
+      <c r="J292" t="s">
         <v>633</v>
       </c>
       <c r="K292">
@@ -11792,7 +11687,7 @@
       <c r="C293">
         <v>29254206</v>
       </c>
-      <c r="J293" s="6" t="s">
+      <c r="J293" t="s">
         <v>634</v>
       </c>
       <c r="K293">
@@ -11815,7 +11710,7 @@
       <c r="C294">
         <v>28179999</v>
       </c>
-      <c r="J294" s="6" t="s">
+      <c r="J294" t="s">
         <v>635</v>
       </c>
       <c r="K294">
@@ -11838,7 +11733,7 @@
       <c r="C295">
         <v>29755680</v>
       </c>
-      <c r="J295" s="6" t="s">
+      <c r="J295" t="s">
         <v>636</v>
       </c>
       <c r="K295">
@@ -11861,7 +11756,7 @@
       <c r="C296">
         <v>28983631</v>
       </c>
-      <c r="J296" s="6" t="s">
+      <c r="J296" t="s">
         <v>637</v>
       </c>
       <c r="K296">
@@ -11884,7 +11779,7 @@
       <c r="C297">
         <v>29866045</v>
       </c>
-      <c r="J297" s="6" t="s">
+      <c r="J297" t="s">
         <v>638</v>
       </c>
       <c r="K297">
@@ -11907,7 +11802,7 @@
       <c r="C298">
         <v>19620839</v>
       </c>
-      <c r="J298" s="6" t="s">
+      <c r="J298" t="s">
         <v>639</v>
       </c>
       <c r="K298">
@@ -11930,7 +11825,7 @@
       <c r="C299">
         <v>24740995</v>
       </c>
-      <c r="J299" s="6" t="s">
+      <c r="J299" t="s">
         <v>640</v>
       </c>
       <c r="K299">
@@ -11953,7 +11848,7 @@
       <c r="C300">
         <v>25003505</v>
       </c>
-      <c r="J300" s="6" t="s">
+      <c r="J300" t="s">
         <v>641</v>
       </c>
       <c r="K300">
@@ -11976,7 +11871,7 @@
       <c r="C301">
         <v>23047306</v>
       </c>
-      <c r="J301" s="6" t="s">
+      <c r="J301" t="s">
         <v>642</v>
       </c>
       <c r="K301">
@@ -11999,7 +11894,7 @@
       <c r="C302">
         <v>11441001</v>
       </c>
-      <c r="J302" s="6" t="s">
+      <c r="J302" t="s">
         <v>643</v>
       </c>
       <c r="K302">
@@ -12022,7 +11917,7 @@
       <c r="C303">
         <v>22288963</v>
       </c>
-      <c r="J303" s="6" t="s">
+      <c r="J303" t="s">
         <v>644</v>
       </c>
       <c r="K303">
@@ -12045,7 +11940,7 @@
       <c r="C304">
         <v>26035298</v>
       </c>
-      <c r="J304" s="6" t="s">
+      <c r="J304" t="s">
         <v>645</v>
       </c>
       <c r="K304">
@@ -12068,7 +11963,7 @@
       <c r="C305">
         <v>28260088</v>
       </c>
-      <c r="J305" s="6" t="s">
+      <c r="J305" t="s">
         <v>646</v>
       </c>
       <c r="K305">
@@ -12091,7 +11986,7 @@
       <c r="C306">
         <v>18381415</v>
       </c>
-      <c r="J306" s="6" t="s">
+      <c r="J306" t="s">
         <v>647</v>
       </c>
       <c r="K306">
@@ -12114,7 +12009,7 @@
       <c r="C307">
         <v>28746919</v>
       </c>
-      <c r="J307" s="6" t="s">
+      <c r="J307" t="s">
         <v>648</v>
       </c>
       <c r="K307">
@@ -12137,7 +12032,7 @@
       <c r="C308">
         <v>18067638</v>
       </c>
-      <c r="J308" s="6" t="s">
+      <c r="J308" t="s">
         <v>649</v>
       </c>
       <c r="K308">
@@ -12160,7 +12055,7 @@
       <c r="C309">
         <v>28677170</v>
       </c>
-      <c r="J309" s="6" t="s">
+      <c r="J309" t="s">
         <v>650</v>
       </c>
       <c r="K309">
@@ -12183,7 +12078,7 @@
       <c r="C310">
         <v>24064218</v>
       </c>
-      <c r="J310" s="6" t="s">
+      <c r="J310" t="s">
         <v>651</v>
       </c>
       <c r="K310">
@@ -12206,7 +12101,7 @@
       <c r="C311">
         <v>20466451</v>
       </c>
-      <c r="J311" s="6" t="s">
+      <c r="J311" t="s">
         <v>652</v>
       </c>
       <c r="K311">
@@ -12229,7 +12124,7 @@
       <c r="C312">
         <v>11156325</v>
       </c>
-      <c r="J312" s="6" t="s">
+      <c r="J312" t="s">
         <v>653</v>
       </c>
       <c r="K312">
@@ -12252,7 +12147,7 @@
       <c r="C313">
         <v>28527968</v>
       </c>
-      <c r="J313" s="6" t="s">
+      <c r="J313" t="s">
         <v>654</v>
       </c>
       <c r="K313">
@@ -12275,7 +12170,7 @@
       <c r="C314">
         <v>26607085</v>
       </c>
-      <c r="J314" s="6" t="s">
+      <c r="J314" t="s">
         <v>655</v>
       </c>
       <c r="K314">
@@ -12298,7 +12193,7 @@
       <c r="C315">
         <v>12584565</v>
       </c>
-      <c r="J315" s="6" t="s">
+      <c r="J315" t="s">
         <v>656</v>
       </c>
       <c r="K315">
@@ -12321,7 +12216,7 @@
       <c r="C316">
         <v>26745678</v>
       </c>
-      <c r="J316" s="6" t="s">
+      <c r="J316" t="s">
         <v>657</v>
       </c>
       <c r="K316">
@@ -12344,7 +12239,7 @@
       <c r="C317">
         <v>27990111</v>
       </c>
-      <c r="J317" s="6" t="s">
+      <c r="J317" t="s">
         <v>658</v>
       </c>
       <c r="K317">
@@ -12367,7 +12262,7 @@
       <c r="C318">
         <v>28191885</v>
       </c>
-      <c r="J318" s="6" t="s">
+      <c r="J318" t="s">
         <v>659</v>
       </c>
       <c r="K318">
@@ -12390,7 +12285,7 @@
       <c r="C319">
         <v>30212242</v>
       </c>
-      <c r="J319" s="6" t="s">
+      <c r="J319" t="s">
         <v>660</v>
       </c>
       <c r="K319">
@@ -12413,7 +12308,7 @@
       <c r="C320">
         <v>23794492</v>
       </c>
-      <c r="J320" s="6" t="s">
+      <c r="J320" t="s">
         <v>661</v>
       </c>
       <c r="K320">
@@ -12436,7 +12331,7 @@
       <c r="C321">
         <v>26343532</v>
       </c>
-      <c r="J321" s="6" t="s">
+      <c r="J321" t="s">
         <v>662</v>
       </c>
       <c r="K321">
@@ -12459,7 +12354,7 @@
       <c r="C322">
         <v>26461337</v>
       </c>
-      <c r="J322" s="6" t="s">
+      <c r="J322" t="s">
         <v>663</v>
       </c>
       <c r="K322">
@@ -12482,7 +12377,7 @@
       <c r="C323">
         <v>29550018</v>
       </c>
-      <c r="J323" s="6" t="s">
+      <c r="J323" t="s">
         <v>664</v>
       </c>
       <c r="K323">
@@ -12505,7 +12400,7 @@
       <c r="C324">
         <v>12130685</v>
       </c>
-      <c r="J324" s="6" t="s">
+      <c r="J324" t="s">
         <v>665</v>
       </c>
       <c r="K324">
@@ -12528,7 +12423,7 @@
       <c r="C325">
         <v>28560415</v>
       </c>
-      <c r="J325" s="6" t="s">
+      <c r="J325" t="s">
         <v>666</v>
       </c>
       <c r="K325">
@@ -12551,7 +12446,7 @@
       <c r="C326">
         <v>10757409</v>
       </c>
-      <c r="J326" s="6" t="s">
+      <c r="J326" t="s">
         <v>667</v>
       </c>
       <c r="K326">
@@ -12574,7 +12469,7 @@
       <c r="C327">
         <v>11956814</v>
       </c>
-      <c r="J327" s="6" t="s">
+      <c r="J327" t="s">
         <v>668</v>
       </c>
       <c r="K327">
@@ -12597,7 +12492,7 @@
       <c r="C328">
         <v>10066094</v>
       </c>
-      <c r="J328" s="6" t="s">
+      <c r="J328" t="s">
         <v>669</v>
       </c>
       <c r="K328">
@@ -12620,7 +12515,7 @@
       <c r="C329">
         <v>21181232</v>
       </c>
-      <c r="J329" s="6" t="s">
+      <c r="J329" t="s">
         <v>670</v>
       </c>
       <c r="K329">
@@ -12643,7 +12538,7 @@
       <c r="C330">
         <v>27496222</v>
       </c>
-      <c r="J330" s="6" t="s">
+      <c r="J330" t="s">
         <v>671</v>
       </c>
       <c r="K330">
@@ -12666,7 +12561,7 @@
       <c r="C331">
         <v>30425528</v>
       </c>
-      <c r="J331" s="6" t="s">
+      <c r="J331" t="s">
         <v>672</v>
       </c>
       <c r="K331">
@@ -12689,7 +12584,7 @@
       <c r="C332">
         <v>26848271</v>
       </c>
-      <c r="J332" s="6" t="s">
+      <c r="J332" t="s">
         <v>673</v>
       </c>
       <c r="K332">
@@ -12712,7 +12607,7 @@
       <c r="C333">
         <v>23988776</v>
       </c>
-      <c r="J333" s="6" t="s">
+      <c r="J333" t="s">
         <v>674</v>
       </c>
       <c r="K333">
@@ -12735,7 +12630,7 @@
       <c r="C334">
         <v>23207437</v>
       </c>
-      <c r="J334" s="6" t="s">
+      <c r="J334" t="s">
         <v>675</v>
       </c>
       <c r="K334">
@@ -12758,7 +12653,7 @@
       <c r="C335">
         <v>22529897</v>
       </c>
-      <c r="J335" s="6" t="s">
+      <c r="J335" t="s">
         <v>676</v>
       </c>
       <c r="K335">
@@ -12781,7 +12676,7 @@
       <c r="C336">
         <v>26348446</v>
       </c>
-      <c r="J336" s="6" t="s">
+      <c r="J336" t="s">
         <v>677</v>
       </c>
       <c r="K336">
@@ -12804,7 +12699,7 @@
       <c r="C337">
         <v>11410792</v>
       </c>
-      <c r="J337" s="6" t="s">
+      <c r="J337" t="s">
         <v>678</v>
       </c>
       <c r="K337">
@@ -12827,7 +12722,7 @@
       <c r="C338">
         <v>18777135</v>
       </c>
-      <c r="J338" s="6" t="s">
+      <c r="J338" t="s">
         <v>679</v>
       </c>
       <c r="K338">
@@ -12850,7 +12745,7 @@
       <c r="C339">
         <v>29956741</v>
       </c>
-      <c r="J339" s="6" t="s">
+      <c r="J339" t="s">
         <v>680</v>
       </c>
       <c r="K339">
@@ -12873,7 +12768,7 @@
       <c r="C340">
         <v>26542681</v>
       </c>
-      <c r="J340" s="6" t="s">
+      <c r="J340" t="s">
         <v>681</v>
       </c>
       <c r="K340">
@@ -12896,7 +12791,7 @@
       <c r="C341">
         <v>25299679</v>
       </c>
-      <c r="J341" s="6" t="s">
+      <c r="J341" t="s">
         <v>682</v>
       </c>
       <c r="K341">
@@ -12919,7 +12814,7 @@
       <c r="C342">
         <v>22220151</v>
       </c>
-      <c r="J342" s="6" t="s">
+      <c r="J342" t="s">
         <v>683</v>
       </c>
       <c r="K342">
@@ -12942,7 +12837,7 @@
       <c r="C343">
         <v>22190591</v>
       </c>
-      <c r="J343" s="6" t="s">
+      <c r="J343" t="s">
         <v>684</v>
       </c>
       <c r="K343">
@@ -12965,7 +12860,7 @@
       <c r="C344">
         <v>26977885</v>
       </c>
-      <c r="J344" s="6" t="s">
+      <c r="J344" t="s">
         <v>685</v>
       </c>
       <c r="K344">
@@ -12988,7 +12883,7 @@
       <c r="C345">
         <v>12194995</v>
       </c>
-      <c r="J345" s="6" t="s">
+      <c r="J345" t="s">
         <v>686</v>
       </c>
       <c r="K345">
@@ -13011,7 +12906,7 @@
       <c r="C346">
         <v>12562233</v>
       </c>
-      <c r="J346" s="6" t="s">
+      <c r="J346" t="s">
         <v>687</v>
       </c>
       <c r="K346">
@@ -13034,7 +12929,7 @@
       <c r="C347">
         <v>29948461</v>
       </c>
-      <c r="J347" s="6" t="s">
+      <c r="J347" t="s">
         <v>688</v>
       </c>
       <c r="K347">
@@ -13057,7 +12952,7 @@
       <c r="C348">
         <v>26029525</v>
       </c>
-      <c r="J348" s="6" t="s">
+      <c r="J348" t="s">
         <v>689</v>
       </c>
       <c r="K348">
@@ -13080,7 +12975,7 @@
       <c r="C349">
         <v>30190790</v>
       </c>
-      <c r="J349" s="6" t="s">
+      <c r="J349" t="s">
         <v>690</v>
       </c>
       <c r="K349">
@@ -13103,7 +12998,7 @@
       <c r="C350">
         <v>28599465</v>
       </c>
-      <c r="J350" s="6" t="s">
+      <c r="J350" t="s">
         <v>691</v>
       </c>
       <c r="K350">
@@ -13126,7 +13021,7 @@
       <c r="C351">
         <v>12548159</v>
       </c>
-      <c r="J351" s="6" t="s">
+      <c r="J351" t="s">
         <v>692</v>
       </c>
       <c r="K351">
@@ -13149,7 +13044,7 @@
       <c r="C352">
         <v>19047111</v>
       </c>
-      <c r="J352" s="6" t="s">
+      <c r="J352" t="s">
         <v>693</v>
       </c>
       <c r="K352">
@@ -13172,7 +13067,7 @@
       <c r="C353">
         <v>29856480</v>
       </c>
-      <c r="J353" s="6" t="s">
+      <c r="J353" t="s">
         <v>694</v>
       </c>
       <c r="K353">
@@ -13195,7 +13090,7 @@
       <c r="C354">
         <v>15634524</v>
       </c>
-      <c r="J354" s="6" t="s">
+      <c r="J354" t="s">
         <v>695</v>
       </c>
       <c r="K354">
@@ -13218,7 +13113,7 @@
       <c r="C355">
         <v>11777274</v>
       </c>
-      <c r="J355" s="6" t="s">
+      <c r="J355" t="s">
         <v>696</v>
       </c>
       <c r="K355">
@@ -13241,7 +13136,7 @@
       <c r="C356">
         <v>30470227</v>
       </c>
-      <c r="J356" s="6" t="s">
+      <c r="J356" t="s">
         <v>697</v>
       </c>
       <c r="K356">
@@ -13264,7 +13159,7 @@
       <c r="C357">
         <v>26594769</v>
       </c>
-      <c r="J357" s="6" t="s">
+      <c r="J357" t="s">
         <v>698</v>
       </c>
       <c r="K357">
@@ -13287,7 +13182,7 @@
       <c r="C358">
         <v>22529186</v>
       </c>
-      <c r="J358" s="6" t="s">
+      <c r="J358" t="s">
         <v>699</v>
       </c>
       <c r="K358">
@@ -13310,7 +13205,7 @@
       <c r="C359">
         <v>29508480</v>
       </c>
-      <c r="J359" s="6" t="s">
+      <c r="J359" t="s">
         <v>700</v>
       </c>
       <c r="K359">
@@ -13333,7 +13228,7 @@
       <c r="C360">
         <v>20149803</v>
       </c>
-      <c r="J360" s="6" t="s">
+      <c r="J360" t="s">
         <v>701</v>
       </c>
       <c r="K360">
@@ -13356,7 +13251,7 @@
       <c r="C361">
         <v>12146029</v>
       </c>
-      <c r="J361" s="6" t="s">
+      <c r="J361" t="s">
         <v>702</v>
       </c>
       <c r="K361">
@@ -13379,7 +13274,7 @@
       <c r="C362">
         <v>28334878</v>
       </c>
-      <c r="J362" s="6" t="s">
+      <c r="J362" t="s">
         <v>703</v>
       </c>
       <c r="K362">
@@ -13402,7 +13297,7 @@
       <c r="C363">
         <v>16630564</v>
       </c>
-      <c r="J363" s="6" t="s">
+      <c r="J363" t="s">
         <v>704</v>
       </c>
       <c r="K363">
@@ -13425,7 +13320,7 @@
       <c r="C364">
         <v>24886091</v>
       </c>
-      <c r="J364" s="6" t="s">
+      <c r="J364" t="s">
         <v>705</v>
       </c>
       <c r="K364">
@@ -13448,7 +13343,7 @@
       <c r="C365">
         <v>25738875</v>
       </c>
-      <c r="J365" s="6" t="s">
+      <c r="J365" t="s">
         <v>706</v>
       </c>
       <c r="K365">
@@ -13471,7 +13366,7 @@
       <c r="C366">
         <v>25982999</v>
       </c>
-      <c r="J366" s="6" t="s">
+      <c r="J366" t="s">
         <v>707</v>
       </c>
       <c r="K366">
@@ -13494,7 +13389,7 @@
       <c r="C367">
         <v>28110998</v>
       </c>
-      <c r="J367" s="6" t="s">
+      <c r="J367" t="s">
         <v>708</v>
       </c>
       <c r="K367">
@@ -13517,7 +13412,7 @@
       <c r="C368">
         <v>28570076</v>
       </c>
-      <c r="J368" s="6" t="s">
+      <c r="J368" t="s">
         <v>709</v>
       </c>
       <c r="K368">
@@ -13540,7 +13435,7 @@
       <c r="C369">
         <v>18337446</v>
       </c>
-      <c r="J369" s="6" t="s">
+      <c r="J369" t="s">
         <v>710</v>
       </c>
       <c r="K369">
@@ -13563,7 +13458,7 @@
       <c r="C370">
         <v>23255165</v>
       </c>
-      <c r="J370" s="6" t="s">
+      <c r="J370" t="s">
         <v>711</v>
       </c>
       <c r="K370">
@@ -13586,7 +13481,7 @@
       <c r="C371">
         <v>30350422</v>
       </c>
-      <c r="J371" s="6" t="s">
+      <c r="J371" t="s">
         <v>712</v>
       </c>
       <c r="K371">
@@ -13609,7 +13504,7 @@
       <c r="C372">
         <v>24852358</v>
       </c>
-      <c r="J372" s="6" t="s">
+      <c r="J372" t="s">
         <v>713</v>
       </c>
       <c r="K372">
@@ -13632,7 +13527,7 @@
       <c r="C373">
         <v>30199148</v>
       </c>
-      <c r="J373" s="6" t="s">
+      <c r="J373" t="s">
         <v>714</v>
       </c>
       <c r="K373">
@@ -13655,7 +13550,7 @@
       <c r="C374">
         <v>25371235</v>
       </c>
-      <c r="J374" s="6" t="s">
+      <c r="J374" t="s">
         <v>715</v>
       </c>
       <c r="K374">
@@ -13678,7 +13573,7 @@
       <c r="C375">
         <v>15279630</v>
       </c>
-      <c r="J375" s="6" t="s">
+      <c r="J375" t="s">
         <v>716</v>
       </c>
       <c r="K375">
@@ -13701,7 +13596,7 @@
       <c r="C376">
         <v>25780510</v>
       </c>
-      <c r="J376" s="6" t="s">
+      <c r="J376" t="s">
         <v>717</v>
       </c>
       <c r="K376">
@@ -13724,7 +13619,7 @@
       <c r="C377">
         <v>30519330</v>
       </c>
-      <c r="J377" s="6" t="s">
+      <c r="J377" t="s">
         <v>718</v>
       </c>
       <c r="K377">
@@ -13747,7 +13642,7 @@
       <c r="C378">
         <v>22862169</v>
       </c>
-      <c r="J378" s="6" t="s">
+      <c r="J378" t="s">
         <v>719</v>
       </c>
       <c r="K378">
@@ -13770,7 +13665,7 @@
       <c r="C379">
         <v>24515772</v>
       </c>
-      <c r="J379" s="6" t="s">
+      <c r="J379" t="s">
         <v>720</v>
       </c>
       <c r="K379">
@@ -13793,7 +13688,7 @@
       <c r="C380">
         <v>21257719</v>
       </c>
-      <c r="J380" s="6" t="s">
+      <c r="J380" t="s">
         <v>721</v>
       </c>
       <c r="K380">
@@ -13816,7 +13711,7 @@
       <c r="C381">
         <v>25356948</v>
       </c>
-      <c r="J381" s="6" t="s">
+      <c r="J381" t="s">
         <v>722</v>
       </c>
       <c r="K381">
@@ -13839,7 +13734,7 @@
       <c r="C382">
         <v>29563587</v>
       </c>
-      <c r="J382" s="6" t="s">
+      <c r="J382" t="s">
         <v>723</v>
       </c>
       <c r="K382">
@@ -13862,7 +13757,7 @@
       <c r="C383">
         <v>27893707</v>
       </c>
-      <c r="J383" s="6" t="s">
+      <c r="J383" t="s">
         <v>724</v>
       </c>
       <c r="K383">
@@ -13885,7 +13780,7 @@
       <c r="C384">
         <v>27903974</v>
       </c>
-      <c r="J384" s="6" t="s">
+      <c r="J384" t="s">
         <v>725</v>
       </c>
       <c r="K384">
@@ -13908,7 +13803,7 @@
       <c r="C385">
         <v>16391865</v>
       </c>
-      <c r="J385" s="6" t="s">
+      <c r="J385" t="s">
         <v>726</v>
       </c>
       <c r="K385">
@@ -13931,7 +13826,7 @@
       <c r="C386">
         <v>29296178</v>
       </c>
-      <c r="J386" s="6" t="s">
+      <c r="J386" t="s">
         <v>727</v>
       </c>
       <c r="K386">
@@ -13954,7 +13849,7 @@
       <c r="C387">
         <v>15653641</v>
       </c>
-      <c r="J387" s="6" t="s">
+      <c r="J387" t="s">
         <v>728</v>
       </c>
       <c r="K387">
@@ -13977,7 +13872,7 @@
       <c r="C388">
         <v>24922693</v>
       </c>
-      <c r="J388" s="6" t="s">
+      <c r="J388" t="s">
         <v>729</v>
       </c>
       <c r="K388">
@@ -14000,7 +13895,7 @@
       <c r="C389">
         <v>29251177</v>
       </c>
-      <c r="J389" s="6" t="s">
+      <c r="J389" t="s">
         <v>730</v>
       </c>
       <c r="K389">
@@ -14023,7 +13918,7 @@
       <c r="C390">
         <v>26329363</v>
       </c>
-      <c r="J390" s="6" t="s">
+      <c r="J390" t="s">
         <v>731</v>
       </c>
       <c r="K390">
@@ -14046,7 +13941,7 @@
       <c r="C391">
         <v>29324442</v>
       </c>
-      <c r="J391" s="6" t="s">
+      <c r="J391" t="s">
         <v>732</v>
       </c>
       <c r="K391">
@@ -14069,7 +13964,7 @@
       <c r="C392">
         <v>20884743</v>
       </c>
-      <c r="J392" s="6" t="s">
+      <c r="J392" t="s">
         <v>733</v>
       </c>
       <c r="K392">
@@ -14092,7 +13987,7 @@
       <c r="C393">
         <v>29588350</v>
       </c>
-      <c r="J393" s="6" t="s">
+      <c r="J393" t="s">
         <v>734</v>
       </c>
       <c r="K393">
@@ -14115,7 +14010,7 @@
       <c r="C394">
         <v>15077168</v>
       </c>
-      <c r="J394" s="6" t="s">
+      <c r="J394" t="s">
         <v>735</v>
       </c>
       <c r="K394">
@@ -14138,7 +14033,7 @@
       <c r="C395">
         <v>17415849</v>
       </c>
-      <c r="J395" s="6" t="s">
+      <c r="J395" t="s">
         <v>736</v>
       </c>
       <c r="K395">
@@ -14161,7 +14056,7 @@
       <c r="C396">
         <v>25336976</v>
       </c>
-      <c r="J396" s="6" t="s">
+      <c r="J396" t="s">
         <v>737</v>
       </c>
       <c r="K396">
@@ -14184,7 +14079,7 @@
       <c r="C397">
         <v>25807485</v>
       </c>
-      <c r="J397" s="6" t="s">
+      <c r="J397" t="s">
         <v>738</v>
       </c>
       <c r="K397">
@@ -14207,7 +14102,7 @@
       <c r="C398">
         <v>22020674</v>
       </c>
-      <c r="J398" s="6" t="s">
+      <c r="J398" t="s">
         <v>739</v>
       </c>
       <c r="K398">
@@ -14230,7 +14125,7 @@
       <c r="C399">
         <v>21122303</v>
       </c>
-      <c r="J399" s="6" t="s">
+      <c r="J399" t="s">
         <v>740</v>
       </c>
       <c r="K399">
@@ -14253,7 +14148,7 @@
       <c r="C400">
         <v>25997063</v>
       </c>
-      <c r="J400" s="6" t="s">
+      <c r="J400" t="s">
         <v>741</v>
       </c>
       <c r="K400">
@@ -14276,7 +14171,7 @@
       <c r="C401">
         <v>27285762</v>
       </c>
-      <c r="J401" s="6" t="s">
+      <c r="J401" t="s">
         <v>742</v>
       </c>
       <c r="K401">
@@ -14299,7 +14194,7 @@
       <c r="C402">
         <v>28177901</v>
       </c>
-      <c r="J402" s="6" t="s">
+      <c r="J402" t="s">
         <v>743</v>
       </c>
       <c r="K402">
@@ -14322,7 +14217,7 @@
       <c r="C403">
         <v>16027227</v>
       </c>
-      <c r="J403" s="6" t="s">
+      <c r="J403" t="s">
         <v>744</v>
       </c>
       <c r="K403">
@@ -14345,7 +14240,7 @@
       <c r="C404">
         <v>20885442</v>
       </c>
-      <c r="J404" s="6" t="s">
+      <c r="J404" t="s">
         <v>745</v>
       </c>
       <c r="K404">
@@ -14368,7 +14263,7 @@
       <c r="C405">
         <v>25162517</v>
       </c>
-      <c r="J405" s="6" t="s">
+      <c r="J405" t="s">
         <v>746</v>
       </c>
       <c r="K405">
@@ -14391,7 +14286,7 @@
       <c r="C406">
         <v>28684780</v>
       </c>
-      <c r="J406" s="6" t="s">
+      <c r="J406" t="s">
         <v>747</v>
       </c>
       <c r="K406">
@@ -14414,7 +14309,7 @@
       <c r="C407">
         <v>26011642</v>
       </c>
-      <c r="J407" s="6" t="s">
+      <c r="J407" t="s">
         <v>748</v>
       </c>
       <c r="K407">
@@ -14437,7 +14332,7 @@
       <c r="C408">
         <v>27081085</v>
       </c>
-      <c r="J408" s="6" t="s">
+      <c r="J408" t="s">
         <v>749</v>
       </c>
       <c r="K408">
@@ -14460,7 +14355,7 @@
       <c r="C409">
         <v>25851923</v>
       </c>
-      <c r="J409" s="6" t="s">
+      <c r="J409" t="s">
         <v>750</v>
       </c>
       <c r="K409">
@@ -14483,7 +14378,7 @@
       <c r="C410">
         <v>30045976</v>
       </c>
-      <c r="J410" s="6" t="s">
+      <c r="J410" t="s">
         <v>751</v>
       </c>
       <c r="K410">
@@ -14506,7 +14401,7 @@
       <c r="C411">
         <v>21160807</v>
       </c>
-      <c r="J411" s="6" t="s">
+      <c r="J411" t="s">
         <v>752</v>
       </c>
       <c r="K411">
@@ -14529,7 +14424,7 @@
       <c r="C412">
         <v>29127420</v>
       </c>
-      <c r="J412" s="6" t="s">
+      <c r="J412" t="s">
         <v>753</v>
       </c>
       <c r="K412">
@@ -14552,7 +14447,7 @@
       <c r="C413">
         <v>19740516</v>
       </c>
-      <c r="J413" s="6" t="s">
+      <c r="J413" t="s">
         <v>754</v>
       </c>
       <c r="K413">
@@ -14575,7 +14470,7 @@
       <c r="C414">
         <v>9563852</v>
       </c>
-      <c r="J414" s="6" t="s">
+      <c r="J414" t="s">
         <v>755</v>
       </c>
       <c r="K414">
@@ -14598,7 +14493,7 @@
       <c r="C415">
         <v>9396717</v>
       </c>
-      <c r="J415" s="6" t="s">
+      <c r="J415" t="s">
         <v>756</v>
       </c>
       <c r="K415">
@@ -14621,7 +14516,7 @@
       <c r="C416">
         <v>27467545</v>
       </c>
-      <c r="J416" s="6" t="s">
+      <c r="J416" t="s">
         <v>757</v>
       </c>
       <c r="K416">
@@ -14644,7 +14539,7 @@
       <c r="C417">
         <v>10728696</v>
       </c>
-      <c r="J417" s="6" t="s">
+      <c r="J417" t="s">
         <v>758</v>
       </c>
       <c r="K417">
@@ -14667,7 +14562,7 @@
       <c r="C418">
         <v>27727250</v>
       </c>
-      <c r="J418" s="6" t="s">
+      <c r="J418" t="s">
         <v>759</v>
       </c>
       <c r="K418">
@@ -14690,7 +14585,7 @@
       <c r="C419">
         <v>25120805</v>
       </c>
-      <c r="J419" s="6" t="s">
+      <c r="J419" t="s">
         <v>760</v>
       </c>
       <c r="K419">
@@ -14713,7 +14608,7 @@
       <c r="C420">
         <v>29676354</v>
       </c>
-      <c r="J420" s="6" t="s">
+      <c r="J420" t="s">
         <v>761</v>
       </c>
       <c r="K420">
@@ -14736,7 +14631,7 @@
       <c r="C421">
         <v>26167183</v>
       </c>
-      <c r="J421" s="6" t="s">
+      <c r="J421" t="s">
         <v>762</v>
       </c>
       <c r="K421">
@@ -14759,7 +14654,7 @@
       <c r="C422">
         <v>23146760</v>
       </c>
-      <c r="J422" s="6" t="s">
+      <c r="J422" t="s">
         <v>763</v>
       </c>
       <c r="K422">
@@ -14782,7 +14677,7 @@
       <c r="C423">
         <v>29259263</v>
       </c>
-      <c r="J423" s="6" t="s">
+      <c r="J423" t="s">
         <v>764</v>
       </c>
       <c r="K423">
@@ -14805,7 +14700,7 @@
       <c r="C424">
         <v>24878756</v>
       </c>
-      <c r="J424" s="6" t="s">
+      <c r="J424" t="s">
         <v>765</v>
       </c>
       <c r="K424">
@@ -14828,7 +14723,7 @@
       <c r="C425">
         <v>29415661</v>
       </c>
-      <c r="J425" s="6" t="s">
+      <c r="J425" t="s">
         <v>766</v>
       </c>
       <c r="K425">
@@ -14851,7 +14746,7 @@
       <c r="C426">
         <v>21179495</v>
       </c>
-      <c r="J426" s="6" t="s">
+      <c r="J426" t="s">
         <v>767</v>
       </c>
       <c r="K426">
@@ -14874,7 +14769,7 @@
       <c r="C427">
         <v>29526543</v>
       </c>
-      <c r="J427" s="6" t="s">
+      <c r="J427" t="s">
         <v>768</v>
       </c>
       <c r="K427">
@@ -14897,7 +14792,7 @@
       <c r="C428">
         <v>26177377</v>
       </c>
-      <c r="J428" s="6" t="s">
+      <c r="J428" t="s">
         <v>769</v>
       </c>
       <c r="K428">
@@ -14920,7 +14815,7 @@
       <c r="C429">
         <v>30094153</v>
       </c>
-      <c r="J429" s="6" t="s">
+      <c r="J429" t="s">
         <v>770</v>
       </c>
       <c r="K429">
@@ -14943,7 +14838,7 @@
       <c r="C430">
         <v>24285584</v>
       </c>
-      <c r="J430" s="6" t="s">
+      <c r="J430" t="s">
         <v>771</v>
       </c>
       <c r="K430">
@@ -14966,7 +14861,7 @@
       <c r="C431">
         <v>25861020</v>
       </c>
-      <c r="J431" s="6" t="s">
+      <c r="J431" t="s">
         <v>772</v>
       </c>
       <c r="K431">
@@ -14989,7 +14884,7 @@
       <c r="C432">
         <v>28070481</v>
       </c>
-      <c r="J432" s="6" t="s">
+      <c r="J432" t="s">
         <v>773</v>
       </c>
       <c r="K432">
@@ -15012,7 +14907,7 @@
       <c r="C433">
         <v>28081573</v>
       </c>
-      <c r="J433" s="6" t="s">
+      <c r="J433" t="s">
         <v>774</v>
       </c>
       <c r="K433">
@@ -15035,7 +14930,7 @@
       <c r="C434">
         <v>27869652</v>
       </c>
-      <c r="J434" s="6" t="s">
+      <c r="J434" t="s">
         <v>775</v>
       </c>
       <c r="K434">
@@ -15058,7 +14953,7 @@
       <c r="C435">
         <v>29754146</v>
       </c>
-      <c r="J435" s="6" t="s">
+      <c r="J435" t="s">
         <v>776</v>
       </c>
       <c r="K435">
@@ -15081,7 +14976,7 @@
       <c r="C436">
         <v>23071539</v>
       </c>
-      <c r="J436" s="6" t="s">
+      <c r="J436" t="s">
         <v>777</v>
       </c>
       <c r="K436">
@@ -15104,7 +14999,7 @@
       <c r="C437">
         <v>29757968</v>
       </c>
-      <c r="J437" s="6" t="s">
+      <c r="J437" t="s">
         <v>778</v>
       </c>
       <c r="K437">
@@ -15127,7 +15022,7 @@
       <c r="C438">
         <v>28652369</v>
       </c>
-      <c r="J438" s="6" t="s">
+      <c r="J438" t="s">
         <v>779</v>
       </c>
       <c r="K438">
@@ -15150,7 +15045,7 @@
       <c r="C439">
         <v>18300807</v>
       </c>
-      <c r="J439" s="6" t="s">
+      <c r="J439" t="s">
         <v>780</v>
       </c>
       <c r="K439">
@@ -15173,7 +15068,7 @@
       <c r="C440">
         <v>27488898</v>
       </c>
-      <c r="J440" s="6" t="s">
+      <c r="J440" t="s">
         <v>781</v>
       </c>
       <c r="K440">
@@ -15196,7 +15091,7 @@
       <c r="C441">
         <v>11859208</v>
       </c>
-      <c r="J441" s="6" t="s">
+      <c r="J441" t="s">
         <v>782</v>
       </c>
       <c r="K441">
@@ -15219,7 +15114,7 @@
       <c r="C442">
         <v>26305796</v>
       </c>
-      <c r="J442" s="6" t="s">
+      <c r="J442" t="s">
         <v>783</v>
       </c>
       <c r="K442">
@@ -15242,7 +15137,7 @@
       <c r="C443">
         <v>23349788</v>
       </c>
-      <c r="J443" s="6" t="s">
+      <c r="J443" t="s">
         <v>784</v>
       </c>
       <c r="K443">
@@ -15265,7 +15160,7 @@
       <c r="C444">
         <v>22799351</v>
       </c>
-      <c r="J444" s="6" t="s">
+      <c r="J444" t="s">
         <v>785</v>
       </c>
       <c r="K444">
@@ -15288,7 +15183,7 @@
       <c r="C445">
         <v>25725609</v>
       </c>
-      <c r="J445" s="6" t="s">
+      <c r="J445" t="s">
         <v>786</v>
       </c>
       <c r="K445">
@@ -15311,7 +15206,7 @@
       <c r="C446">
         <v>22864788</v>
       </c>
-      <c r="J446" s="6" t="s">
+      <c r="J446" t="s">
         <v>787</v>
       </c>
       <c r="K446">
@@ -15334,7 +15229,7 @@
       <c r="C447">
         <v>28556957</v>
       </c>
-      <c r="J447" s="6" t="s">
+      <c r="J447" t="s">
         <v>788</v>
       </c>
       <c r="K447">
@@ -15357,7 +15252,7 @@
       <c r="C448">
         <v>16950787</v>
       </c>
-      <c r="J448" s="6" t="s">
+      <c r="J448" t="s">
         <v>789</v>
       </c>
       <c r="K448">
@@ -15380,7 +15275,7 @@
       <c r="C449">
         <v>28299977</v>
       </c>
-      <c r="J449" s="6" t="s">
+      <c r="J449" t="s">
         <v>790</v>
       </c>
       <c r="K449">
@@ -15403,7 +15298,7 @@
       <c r="C450">
         <v>25897662</v>
       </c>
-      <c r="J450" s="6" t="s">
+      <c r="J450" t="s">
         <v>791</v>
       </c>
       <c r="K450">
@@ -15426,7 +15321,7 @@
       <c r="C451">
         <v>26254613</v>
       </c>
-      <c r="J451" s="6" t="s">
+      <c r="J451" t="s">
         <v>792</v>
       </c>
       <c r="K451">
@@ -15449,7 +15344,7 @@
       <c r="C452">
         <v>30329165</v>
       </c>
-      <c r="J452" s="6" t="s">
+      <c r="J452" t="s">
         <v>793</v>
       </c>
       <c r="K452">
@@ -15472,7 +15367,7 @@
       <c r="C453">
         <v>27234602</v>
       </c>
-      <c r="J453" s="6" t="s">
+      <c r="J453" t="s">
         <v>794</v>
       </c>
       <c r="K453">
@@ -15495,7 +15390,7 @@
       <c r="C454">
         <v>28953659</v>
       </c>
-      <c r="J454" s="6" t="s">
+      <c r="J454" t="s">
         <v>795</v>
       </c>
       <c r="K454">
@@ -15518,7 +15413,7 @@
       <c r="C455">
         <v>30131913</v>
       </c>
-      <c r="J455" s="6" t="s">
+      <c r="J455" t="s">
         <v>796</v>
       </c>
       <c r="K455">
@@ -15541,7 +15436,7 @@
       <c r="C456">
         <v>30443294</v>
       </c>
-      <c r="J456" s="6" t="s">
+      <c r="J456" t="s">
         <v>797</v>
       </c>
       <c r="K456">
@@ -15564,7 +15459,7 @@
       <c r="C457">
         <v>30314701</v>
       </c>
-      <c r="J457" s="6" t="s">
+      <c r="J457" t="s">
         <v>798</v>
       </c>
       <c r="K457">
@@ -15587,7 +15482,7 @@
       <c r="C458">
         <v>23897259</v>
       </c>
-      <c r="J458" s="6" t="s">
+      <c r="J458" t="s">
         <v>799</v>
       </c>
       <c r="K458">
@@ -15610,7 +15505,7 @@
       <c r="C459">
         <v>29375717</v>
       </c>
-      <c r="J459" s="6" t="s">
+      <c r="J459" t="s">
         <v>800</v>
       </c>
       <c r="K459">
@@ -15633,7 +15528,7 @@
       <c r="C460">
         <v>30203406</v>
       </c>
-      <c r="J460" s="6" t="s">
+      <c r="J460" t="s">
         <v>801</v>
       </c>
       <c r="K460">
@@ -15656,7 +15551,7 @@
       <c r="C461">
         <v>30534177</v>
       </c>
-      <c r="J461" s="6" t="s">
+      <c r="J461" t="s">
         <v>802</v>
       </c>
       <c r="K461">
@@ -15679,7 +15574,7 @@
       <c r="C462">
         <v>16452182</v>
       </c>
-      <c r="J462" s="6" t="s">
+      <c r="J462" t="s">
         <v>803</v>
       </c>
       <c r="K462">
@@ -15702,7 +15597,7 @@
       <c r="C463">
         <v>24696747</v>
       </c>
-      <c r="J463" s="6" t="s">
+      <c r="J463" t="s">
         <v>804</v>
       </c>
       <c r="K463">
@@ -15725,7 +15620,7 @@
       <c r="C464">
         <v>26846097</v>
       </c>
-      <c r="J464" s="6" t="s">
+      <c r="J464" t="s">
         <v>805</v>
       </c>
       <c r="K464">
@@ -15748,7 +15643,7 @@
       <c r="C465">
         <v>26767024</v>
       </c>
-      <c r="J465" s="6" t="s">
+      <c r="J465" t="s">
         <v>806</v>
       </c>
       <c r="K465">
@@ -15771,7 +15666,7 @@
       <c r="C466">
         <v>12698189</v>
       </c>
-      <c r="J466" s="6" t="s">
+      <c r="J466" t="s">
         <v>807</v>
       </c>
       <c r="K466">
@@ -15794,7 +15689,7 @@
       <c r="C467">
         <v>18801198</v>
       </c>
-      <c r="J467" s="6" t="s">
+      <c r="J467" t="s">
         <v>808</v>
       </c>
       <c r="K467">
@@ -15817,7 +15712,7 @@
       <c r="C468">
         <v>22345618</v>
       </c>
-      <c r="J468" s="6" t="s">
+      <c r="J468" t="s">
         <v>809</v>
       </c>
       <c r="K468">
@@ -15840,7 +15735,7 @@
       <c r="C469">
         <v>27277197</v>
       </c>
-      <c r="J469" s="6" t="s">
+      <c r="J469" t="s">
         <v>810</v>
       </c>
       <c r="K469">
@@ -15863,7 +15758,7 @@
       <c r="C470">
         <v>25371617</v>
       </c>
-      <c r="J470" s="6" t="s">
+      <c r="J470" t="s">
         <v>811</v>
       </c>
       <c r="K470">
@@ -15886,7 +15781,7 @@
       <c r="C471">
         <v>24324071</v>
       </c>
-      <c r="J471" s="6" t="s">
+      <c r="J471" t="s">
         <v>812</v>
       </c>
       <c r="K471">
@@ -15909,7 +15804,7 @@
       <c r="C472">
         <v>17508409</v>
       </c>
-      <c r="J472" s="6" t="s">
+      <c r="J472" t="s">
         <v>813</v>
       </c>
       <c r="K472">
@@ -15932,7 +15827,7 @@
       <c r="C473">
         <v>29843871</v>
       </c>
-      <c r="J473" s="6" t="s">
+      <c r="J473" t="s">
         <v>814</v>
       </c>
       <c r="K473">
@@ -15955,7 +15850,7 @@
       <c r="C474">
         <v>21685035</v>
       </c>
-      <c r="J474" s="6" t="s">
+      <c r="J474" t="s">
         <v>815</v>
       </c>
       <c r="K474">
@@ -15978,7 +15873,7 @@
       <c r="C475">
         <v>22117833</v>
       </c>
-      <c r="J475" s="6" t="s">
+      <c r="J475" t="s">
         <v>816</v>
       </c>
       <c r="K475">
@@ -16001,7 +15896,7 @@
       <c r="C476">
         <v>26715912</v>
       </c>
-      <c r="J476" s="6" t="s">
+      <c r="J476" t="s">
         <v>817</v>
       </c>
       <c r="K476">
@@ -16024,7 +15919,7 @@
       <c r="C477">
         <v>29434030</v>
       </c>
-      <c r="J477" s="6" t="s">
+      <c r="J477" t="s">
         <v>818</v>
       </c>
       <c r="K477">
@@ -16047,7 +15942,7 @@
       <c r="C478">
         <v>29729275</v>
       </c>
-      <c r="J478" s="6" t="s">
+      <c r="J478" t="s">
         <v>819</v>
       </c>
       <c r="K478">
@@ -16070,7 +15965,7 @@
       <c r="C479">
         <v>21224363</v>
       </c>
-      <c r="J479" s="6" t="s">
+      <c r="J479" t="s">
         <v>820</v>
       </c>
       <c r="K479">
@@ -16093,7 +15988,7 @@
       <c r="C480">
         <v>30473748</v>
       </c>
-      <c r="J480" s="6" t="s">
+      <c r="J480" t="s">
         <v>821</v>
       </c>
       <c r="K480">
@@ -16116,7 +16011,7 @@
       <c r="C481">
         <v>15059518</v>
       </c>
-      <c r="J481" s="6" t="s">
+      <c r="J481" t="s">
         <v>822</v>
       </c>
       <c r="K481">
@@ -16139,7 +16034,7 @@
       <c r="C482">
         <v>26676220</v>
       </c>
-      <c r="J482" s="6" t="s">
+      <c r="J482" t="s">
         <v>823</v>
       </c>
       <c r="K482">
@@ -16162,7 +16057,7 @@
       <c r="C483">
         <v>21612592</v>
       </c>
-      <c r="J483" s="6" t="s">
+      <c r="J483" t="s">
         <v>824</v>
       </c>
       <c r="K483">
@@ -16185,7 +16080,7 @@
       <c r="C484">
         <v>28018302</v>
       </c>
-      <c r="J484" s="6" t="s">
+      <c r="J484" t="s">
         <v>825</v>
       </c>
       <c r="K484">
@@ -16208,7 +16103,7 @@
       <c r="C485">
         <v>28603843</v>
       </c>
-      <c r="J485" s="6" t="s">
+      <c r="J485" t="s">
         <v>826</v>
       </c>
       <c r="K485">
@@ -16231,7 +16126,7 @@
       <c r="C486">
         <v>23656788</v>
       </c>
-      <c r="J486" s="6" t="s">
+      <c r="J486" t="s">
         <v>827</v>
       </c>
       <c r="K486">
@@ -16254,7 +16149,7 @@
       <c r="C487">
         <v>23162623</v>
       </c>
-      <c r="J487" s="6" t="s">
+      <c r="J487" t="s">
         <v>828</v>
       </c>
       <c r="K487">
@@ -16277,7 +16172,7 @@
       <c r="C488">
         <v>26229244</v>
       </c>
-      <c r="J488" s="6" t="s">
+      <c r="J488" t="s">
         <v>829</v>
       </c>
       <c r="K488">
@@ -16300,7 +16195,7 @@
       <c r="C489">
         <v>28606806</v>
       </c>
-      <c r="J489" s="6" t="s">
+      <c r="J489" t="s">
         <v>830</v>
       </c>
       <c r="K489">
@@ -16323,7 +16218,7 @@
       <c r="C490">
         <v>30186141</v>
       </c>
-      <c r="J490" s="6" t="s">
+      <c r="J490" t="s">
         <v>831</v>
       </c>
       <c r="K490">
@@ -16346,7 +16241,7 @@
       <c r="C491">
         <v>25298766</v>
       </c>
-      <c r="J491" s="6" t="s">
+      <c r="J491" t="s">
         <v>832</v>
       </c>
       <c r="K491">
@@ -16369,7 +16264,7 @@
       <c r="C492">
         <v>23913165</v>
       </c>
-      <c r="J492" s="6" t="s">
+      <c r="J492" t="s">
         <v>833</v>
       </c>
       <c r="K492">
@@ -16392,7 +16287,7 @@
       <c r="C493">
         <v>22009766</v>
       </c>
-      <c r="J493" s="6" t="s">
+      <c r="J493" t="s">
         <v>834</v>
       </c>
       <c r="K493">
@@ -16415,7 +16310,7 @@
       <c r="C494">
         <v>26830206</v>
       </c>
-      <c r="J494" s="6" t="s">
+      <c r="J494" t="s">
         <v>835</v>
       </c>
       <c r="K494">
@@ -16438,7 +16333,7 @@
       <c r="C495">
         <v>25740944</v>
       </c>
-      <c r="J495" s="6" t="s">
+      <c r="J495" t="s">
         <v>836</v>
       </c>
       <c r="K495">
@@ -16461,7 +16356,7 @@
       <c r="C496">
         <v>26792981</v>
       </c>
-      <c r="J496" s="6" t="s">
+      <c r="J496" t="s">
         <v>837</v>
       </c>
       <c r="K496">
@@ -16484,7 +16379,7 @@
       <c r="C497">
         <v>24775604</v>
       </c>
-      <c r="J497" s="6" t="s">
+      <c r="J497" t="s">
         <v>838</v>
       </c>
       <c r="K497">
@@ -16507,7 +16402,7 @@
       <c r="C498">
         <v>29267508</v>
       </c>
-      <c r="J498" s="6" t="s">
+      <c r="J498" t="s">
         <v>839</v>
       </c>
       <c r="K498">
@@ -16530,7 +16425,7 @@
       <c r="C499">
         <v>28927142</v>
       </c>
-      <c r="J499" s="6" t="s">
+      <c r="J499" t="s">
         <v>840</v>
       </c>
       <c r="K499">
@@ -16553,7 +16448,7 @@
       <c r="C500">
         <v>26560147</v>
       </c>
-      <c r="J500" s="6" t="s">
+      <c r="J500" t="s">
         <v>841</v>
       </c>
       <c r="K500">
@@ -16576,7 +16471,7 @@
       <c r="C501">
         <v>28692600</v>
       </c>
-      <c r="J501" s="6" t="s">
+      <c r="J501" t="s">
         <v>842</v>
       </c>
       <c r="K501">
@@ -16599,7 +16494,7 @@
       <c r="C502">
         <v>22970842</v>
       </c>
-      <c r="J502" s="6" t="s">
+      <c r="J502" t="s">
         <v>843</v>
       </c>
       <c r="K502">
@@ -16622,7 +16517,7 @@
       <c r="C503">
         <v>19318547</v>
       </c>
-      <c r="J503" s="6" t="s">
+      <c r="J503" t="s">
         <v>844</v>
       </c>
       <c r="K503">
@@ -16645,7 +16540,7 @@
       <c r="C504">
         <v>26622730</v>
       </c>
-      <c r="J504" s="6" t="s">
+      <c r="J504" t="s">
         <v>845</v>
       </c>
       <c r="K504">
@@ -16668,7 +16563,7 @@
       <c r="C505">
         <v>17064298</v>
       </c>
-      <c r="J505" s="6" t="s">
+      <c r="J505" t="s">
         <v>846</v>
       </c>
       <c r="K505">
@@ -16691,7 +16586,7 @@
       <c r="C506">
         <v>27796394</v>
       </c>
-      <c r="J506" s="6" t="s">
+      <c r="J506" t="s">
         <v>847</v>
       </c>
       <c r="K506">
@@ -16714,7 +16609,7 @@
       <c r="C507">
         <v>29930174</v>
       </c>
-      <c r="J507" s="6" t="s">
+      <c r="J507" t="s">
         <v>848</v>
       </c>
       <c r="K507">
@@ -16737,7 +16632,7 @@
       <c r="C508">
         <v>22934141</v>
       </c>
-      <c r="J508" s="6" t="s">
+      <c r="J508" t="s">
         <v>849</v>
       </c>
       <c r="K508">
@@ -16760,7 +16655,7 @@
       <c r="C509">
         <v>21475657</v>
       </c>
-      <c r="J509" s="6" t="s">
+      <c r="J509" t="s">
         <v>850</v>
       </c>
       <c r="K509">
@@ -16783,7 +16678,7 @@
       <c r="C510">
         <v>26277666</v>
       </c>
-      <c r="J510" s="6" t="s">
+      <c r="J510" t="s">
         <v>851</v>
       </c>
       <c r="K510">
@@ -16806,7 +16701,7 @@
       <c r="C511">
         <v>30195659</v>
       </c>
-      <c r="J511" s="6" t="s">
+      <c r="J511" t="s">
         <v>852</v>
       </c>
       <c r="K511">
@@ -16829,7 +16724,7 @@
       <c r="C512">
         <v>29474858</v>
       </c>
-      <c r="J512" s="6" t="s">
+      <c r="J512" t="s">
         <v>853</v>
       </c>
       <c r="K512">
@@ -16852,7 +16747,7 @@
       <c r="C513">
         <v>23323237</v>
       </c>
-      <c r="J513" s="6" t="s">
+      <c r="J513" t="s">
         <v>854</v>
       </c>
       <c r="K513">
@@ -16875,7 +16770,7 @@
       <c r="C514">
         <v>26137041</v>
       </c>
-      <c r="J514" s="6" t="s">
+      <c r="J514" t="s">
         <v>855</v>
       </c>
       <c r="K514">
@@ -16898,7 +16793,7 @@
       <c r="C515">
         <v>25881239</v>
       </c>
-      <c r="J515" s="6" t="s">
+      <c r="J515" t="s">
         <v>856</v>
       </c>
       <c r="K515">
@@ -16921,7 +16816,7 @@
       <c r="C516">
         <v>25512094</v>
       </c>
-      <c r="J516" s="6" t="s">
+      <c r="J516" t="s">
         <v>857</v>
       </c>
       <c r="K516">
@@ -16944,7 +16839,7 @@
       <c r="C517">
         <v>24710653</v>
       </c>
-      <c r="J517" s="6" t="s">
+      <c r="J517" t="s">
         <v>858</v>
       </c>
       <c r="K517">
@@ -16967,7 +16862,7 @@
       <c r="C518">
         <v>24764584</v>
       </c>
-      <c r="J518" s="6" t="s">
+      <c r="J518" t="s">
         <v>859</v>
       </c>
       <c r="K518">
@@ -16990,7 +16885,7 @@
       <c r="C519">
         <v>27763636</v>
       </c>
-      <c r="J519" s="6" t="s">
+      <c r="J519" t="s">
         <v>860</v>
       </c>
       <c r="K519">
@@ -17006,12 +16901,8 @@
         <v>-256</v>
       </c>
     </row>
-    <row r="520" spans="5:10">
-      <c r="E520" s="4"/>
-      <c r="J520" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="118">
+  <mergeCells count="20">
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A19:A20"/>
@@ -17032,104 +16923,6 @@
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="A121:A123"/>
     <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="I3:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I51:I54"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="I121:I123"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="J3:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="J51:J54"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="J106:J107"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="J121:J123"/>
-    <mergeCell ref="J124:J125"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
